--- a/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6857" uniqueCount="948">
   <si>
     <t>Result</t>
   </si>
@@ -3733,6 +3733,1249 @@
 MisMatch :
 false  || Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Construction Management and Technology (MS) Contract Management (MLS) Corporate and Health Care Compliance (MLS) Corrections Management (Graduate Certificate) Criminal Justice (MA) Criminal Law (MLS) Criminal Sentencing and Sentencing Advocacy (Graduate Certificate) Criminology and Criminal Justice (BS) Curriculum and Instruction: Early Childhood Education (MEd) Curriculum and Instruction: Gifted Education (MEd) Cybersecurity (MCS) Cybersecurity Policy and Management (MA) Digital Audience Strategy (Graduate Certificate) Digital Audience Strategy (MS) Digital Audiences (BS) Early Childhood Studies (BAS) Economics (BS) - Business Economics (BS) - Liberal Arts Education (Educating Multilingual Learners) (MA) Education (MA) Education - Literacy Education (MA) Educational Leadership (Principalship) (MEd) Educational Studies (BAE) Educational Studies - Early Childhood Education (BAE) Electrical Engineering (BSE) Electrical Engineering (MSE) Electrical Engineering - Electric Power and Energy Systems (BSE) Emergency Management (MA) Emergency Management and Homeland Security (EMHS) Engineering Management (BSE) Engineering Science in Software Engineering (MSE) Engineering: Engineering Management (MEng) Engineering: Quality, Reliability and Statistical Engineering (MEng) Engineering: Systems Engineering (MEng) English (BA) English (MA) English as a Second Language (Graduate Certificate) Executive Fire Administration (MA) Executive Master of Public Administration (EMPA) Family &amp; Human Development (BS) Family &amp; Human Development (MS) Film and Media Studies (BA) Film and Media Studies (MAS) Food Policy and Sustainability Leadership (Graduate Certificate) Food Safety and Protection (Graduate Certificate) Food and Nutrition Entrepreneurship (BAS) Food and Nutrition Entrepreneurship BS Forensic Psychology (MS) Forensic Science (PSM) Geographic Information Science (BS) Geographic Information Science (Undergraduate Certificate) Geography (BA) Geography (BS) Gifted Education (Graduate Certificate) Global Development and Innovation (Graduate Certificate) Global Education (MEd) Global Health (BA) Global Management (BGM) Global Security (MA) Global Security - Cybersecurity (MA) Global Studies (BA) Global Technology &amp; Development (Applied International Development) (MS) Global Technology and Development (MS) Graphic Information Technology (BAS) Graphic Information Technology (BS) Graphic Information Technology (MS) HR and Employment Law (MLS) Health Care Compliance and Regulations (BS) Health Care Coordination (BS) Health Care Innovation (Graduate Certificate) Health Education and Health Promotion (BS) Health Entrepreneurship and Innovation (BAS) Health Entrepreneurship and Innovation (BS) Health Informatics (MAS) Health Sciences (BAS) Health Sciences (BS) Healthcare Innovation (MHI) Healthy Lifestyles Coaching (Health Sciences) (BS) History (BA) History (MA) Homeland Security (Graduate Certificate) Homeland Security (MA) Homeland Security (Undergraduate Certificate) Indigenous Education (MA) Industrial Engineering (MS) Information Technology (BS) Information Technology (MS) Integrated Behavioral Health - Clinical (Graduate Certificate) Integrated Behavioral Health - Management (Graduate Certificate) Integrative Health (BS) Intellectual Property Law (MLS) Interdisciplinary Arts and Performance (BA) Interdisciplinary Studies (BA) Interdisciplinary Studies - Organizational Studies (BA) International Health Management (MIHM) International Public Health (BIPH) International Trade (BS) Internet &amp; Web Development (Applied Science BAS) Justice Studies (BS) Law Enforcement Administration (Graduate Certificate) Law and Sustainability (MLS) Leadership and Innovation (EdD) Leadership and Management (MALM) - Thunderbird Lean Six Sigma Black Belt (Graduate Certificate) Learning Design and Technologies (MEd) Legal Studies (MLS) Liberal Studies (BA) Liberal Studies (MLSt) MBA - Master of Business Administration MBA/MS - Industrial Engineering MBA/MSE - Electrical Engineering Management (BS) Marketing (BS) Mass Communication and Media Studies (BA) Materials Science and Engineering (MS) Mathematical Concepts of Engineering (Undergraduate Certificate) Medical Nutrition (MS) Nonprofit Leadership and Management (Graduate Certificate) Nonprofit Leadership and Management (MNLM) Nuclear Power Generation (Graduate Certificate) Nurse Education in Academic and Practice Settings (Graduate Certificate) Nursing (MS) Nursing - Nursing Education (MS) Nursing - RN to BSN Nutritional Science (Dietetics) (MS) Operations Management (Applied Science BAS) Organizational Leadership (BA) Organizational Leadership (MS) Organizational Leadership - Project Management (BA) Philosophy (BA) Philosophy (Morality, Politics and Law) (BA) Physics (BA) Political Psychology (MA) Political Science (BA) Political Science (BS) Program Evaluation (Graduate Certificate) Program Evaluation and Data Analytics (MS) Project Management (BAS) Psychology (BA) Psychology (BS) Psychology (MS) Psychology - Forensic Psychology (BA) Psychology - Forensic Psychology (BS) Public Interest Technology (MS) Public Safety Leadership and Administration (MPSLA) Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA) Public Safety Leadership and Administration – Executive Police Administration (MPSLA) Public Service and Public Policy (BS) Public Service and Public Policy - Emergency Management Homeland Security (BS) RN to BSN – Concurrent Enrollment (BSN) Regulatory Science (MS) Regulatory Science – Food Safety (MS) Religious Studies - Religion, Culture and Public Life (BA) Science of Health Care Delivery (Graduate Certificate) Science of Health Care Delivery (MS) Social Entrepreneurship and Community Development (Graduate Certificate) Social Justice and Human Rights (MA) Social Work (MSW) Sociology (BS) Sociology (MA) Software Engineering (BS) Spanish (BA) Special Education (Applied Behavior Analysis) (MA) Special Education - Autism Spectrum Disorders (MA) Speech and Hearing Science (BS) Sports Law and Business (MLS) Supply Chain Management (BS) Supply Chain Management (MS) Sustainability (BA) Sustainability (BS) Sustainability (Graduate Certificate) Sustainability Leadership (EMSL) Sustainability Leadership (MSL) Sustainable Engineering (MSE) Sustainable Food Systems (BS) Sustainable Food Systems (MS) Sustainable Tourism (Graduate Certificate) Sustainable Tourism (MST) Teaching English to Speakers of Other Languages (MTESOL) Technical Communication (BS) Technical Communication (Graduate Certificate) Technical Communication (MS) Technical Communication - User Experience (BS) Technological Entrepreneurship and Management (BS) Technological Leadership (BS) Tourism and Recreation Management (BS) Urban Planning (BSP) Women and Gender Studies (BA) World War II Studies (MA) No results found. List is empty.&lt;---&gt;Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biological Sciences – Biology and Society (BS) Biological Sciences – Conservation Biology and Ecology (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Financial Planning (BA) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Construction Management and Technology (MS) Contract Management (MLS) Corporate and Health Care Compliance (MLS) Corrections Management (Graduate Certificate) Criminal Justice (MA) Criminal Law (MLS) Criminal Sentencing and Sentencing Advocacy (Graduate Certificate) Criminology and Criminal Justice (BS) Curriculum and Instruction: Early Childhood Education (MEd) Curriculum and Instruction: Gifted Education (MEd) Cybersecurity (MCS) Cybersecurity Policy and Management (MA) Digital Audience Strategy (Graduate Certificate) Digital Audience Strategy (MS) Digital Audiences (BS) Early Childhood Studies (BAS) Economics (BS) - Business Economics (BS) - Liberal Arts Education (Educating Multilingual Learners) (MA) Education (MA) Education - Literacy Education (MA) Educational Leadership (Principalship) (MEd) Educational Studies (BAE) Educational Studies - Early Childhood Education (BAE) Electrical Engineering (BSE) Electrical Engineering (MSE) Electrical Engineering - Electric Power and Energy Systems (BSE) Emergency Management (MA) Emergency Management and Homeland Security (EMHS) Engineering Management (BSE) Engineering Science in Software Engineering (MSE) Engineering: Engineering Management (MEng) Engineering: Quality, Reliability and Statistical Engineering (MEng) Engineering: Systems Engineering (MEng) English (BA) English (MA) English as a Second Language (Graduate Certificate) Executive Fire Administration (MA) Executive Master of Public Administration (EMPA) Family &amp; Human Development (BS) Family &amp; Human Development (MS) Film and Media Studies (BA) Film and Media Studies (MAS) Food Policy and Sustainability Leadership (Graduate Certificate) Food Safety and Protection (Graduate Certificate) Food and Nutrition Entrepreneurship (BAS) Food and Nutrition Entrepreneurship BS Forensic Psychology (MS) Forensic Science (PSM) Geographic Information Science (BS) Geographic Information Science (Undergraduate Certificate) Geography (BA) Geography (BS) Gifted Education (Graduate Certificate) Global Development and Innovation (Graduate Certificate) Global Education (MEd) Global Health (BA) Global Management (BGM) Global Security (MA) Global Security - Cybersecurity (MA) Global Studies (BA) Global Technology &amp; Development (Applied International Development) (MS) Global Technology and Development (MS) Graphic Design (BSD) Graphic Information Technology (BAS) Graphic Information Technology (BS) Graphic Information Technology (MS) HR and Employment Law (MLS) Health Care Compliance and Regulations (BS) Health Care Coordination (BS) Health Care Innovation (Graduate Certificate) Health Education and Health Promotion (BS) Health Entrepreneurship and Innovation (BAS) Health Entrepreneurship and Innovation (BS) Health Informatics (MAS) Health Sciences (BAS) Health Sciences (BS) Healthcare Innovation (MHI) Healthy Lifestyles Coaching (Health Sciences) (BS) History (BA) History (MA) Homeland Security (Graduate Certificate) Homeland Security (MA) Homeland Security (Undergraduate Certificate) Indigenous Education (MA) Industrial Engineering (MS) Information Technology (BS) Information Technology (MS) Integrated Behavioral Health - Clinical (Graduate Certificate) Integrated Behavioral Health - Management (Graduate Certificate) Integrative Health (BS) Intellectual Property Law (MLS) Interdisciplinary Arts and Performance (BA) Interdisciplinary Studies (BA) Interdisciplinary Studies - Organizational Studies (BA) International Health Management (MIHM) International Public Health (BIPH) International Trade (BS) Internet &amp; Web Development (Applied Science BAS) Justice Studies (BS) Law Enforcement Administration (Graduate Certificate) Law and Sustainability (MLS) Leadership and Innovation (EdD) Leadership and Management (MALM) - Thunderbird Lean Six Sigma Black Belt (Graduate Certificate) Learning Design and Technologies (MEd) Legal Studies (MLS) Liberal Studies (BA) Liberal Studies (MLSt) MBA - Master of Business Administration MBA/MS - Industrial Engineering MBA/MSE - Electrical Engineering Management (BS) Marketing (BS) Mass Communication and Media Studies (BA) Materials Science and Engineering (MS) Mathematical Concepts of Engineering (Undergraduate Certificate) Medical Nutrition (MS) Nonprofit Leadership and Management (Graduate Certificate) Nonprofit Leadership and Management (MNLM) Nuclear Power Generation (Graduate Certificate) Nurse Education in Academic and Practice Settings (Graduate Certificate) Nursing (MS) Nursing - Nursing Education (MS) Nursing - RN to BSN Nutritional Science (Dietetics) (MS) Operations Management (Applied Science BAS) Organizational Leadership (BA) Organizational Leadership (MS) Organizational Leadership - Project Management (BA) Philosophy (BA) Philosophy (Morality, Politics and Law) (BA) Physics (BA) Political Psychology (MA) Political Science (BA) Political Science (BS) Program Evaluation (Graduate Certificate) Program Evaluation and Data Analytics (MS) Project Management (BAS) Psychology (BA) Psychology (BS) Psychology (MS) Psychology - Forensic Psychology (BA) Psychology - Forensic Psychology (BS) Public Interest Technology (MS) Public Safety Leadership and Administration (MPSLA) Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA) Public Safety Leadership and Administration – Executive Police Administration (MPSLA) Public Service and Public Policy (BS) Public Service and Public Policy - Emergency Management Homeland Security (BS) RN to BSN – Concurrent Enrollment (BSN) Regulatory Science (MS) Regulatory Science – Food Safety (MS) Religious Studies - Religion, Culture and Public Life (BA) Science of Health Care Delivery (Graduate Certificate) Science of Health Care Delivery (MS) Social Entrepreneurship and Community Development (Graduate Certificate) Social Justice and Human Rights (MA) Social Work (MSW) Sociology (BS) Sociology (MA) Software Engineering (BS) Spanish (BA) Special Education (Applied Behavior Analysis) (MA) Special Education - Autism Spectrum Disorders (MA) Speech and Hearing Science (BS) Sports Law and Business (MLS) Supply Chain Management (BS) Supply Chain Management (MS) Sustainability (BA) Sustainability (BS) Sustainability (Graduate Certificate) Sustainability Leadership (EMSL) Sustainability Leadership (MSL) Sustainable Engineering (MSE) Sustainable Food Systems (BS) Sustainable Food Systems (MS) Sustainable Tourism (Graduate Certificate) Sustainable Tourism (MST) Teaching English to Speakers of Other Languages (MTESOL) Technical Communication (BS) Technical Communication (Graduate Certificate) Technical Communication (MS) Technical Communication - User Experience (BS) Technological Entrepreneurship and Management (BS) Technological Leadership (BS) Tourism and Recreation Management (BS) Urban Planning (BSP) Women and Gender Studies (BA) World War II Studies (MA) No results found. List is empty.
 For tag &lt;li&gt; count mismatch 322---326
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/
+MisMatch :
+false  || Select a degree type Graduate Undergraduate Certificates No results found. List is empty.&lt;---&gt;Select a degree type Undergraduate Graduate Certificates No results found. List is empty.
+false  || Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Construction Management and Technology (MS) Contract Management (MLS) Corporate and Health Care Compliance (MLS) Corrections Management (Graduate Certificate) Criminal Justice (MA) Criminal Law (MLS) Criminal Sentencing and Sentencing Advocacy (Graduate Certificate) Criminology and Criminal Justice (BS) Curriculum and Instruction: Early Childhood Education (MEd) Curriculum and Instruction: Gifted Education (MEd) Cybersecurity (MCS) Cybersecurity Policy and Management (MA) Digital Audience Strategy (Graduate Certificate) Digital Audience Strategy (MS) Digital Audiences (BS) Early Childhood Studies (BAS) Economics (BS) - Business Economics (BS) - Liberal Arts Education (Educating Multilingual Learners) (MA) Education (MA) Education - Literacy Education (MA) Educational Leadership (Principalship) (MEd) Educational Studies (BAE) Educational Studies - Early Childhood Education (BAE) Electrical Engineering (BSE) Electrical Engineering (MSE) Electrical Engineering - Electric Power and Energy Systems (BSE) Emergency Management (MA) Emergency Management and Homeland Security (EMHS) Engineering Management (BSE) Engineering Science in Software Engineering (MSE) Engineering: Engineering Management (MEng) Engineering: Quality, Reliability and Statistical Engineering (MEng) Engineering: Systems Engineering (MEng) English (BA) English (MA) English as a Second Language (Graduate Certificate) Executive Fire Administration (MA) Executive Master of Public Administration (EMPA) Family &amp; Human Development (BS) Family &amp; Human Development (MS) Film and Media Studies (BA) Film and Media Studies (MAS) Food Policy and Sustainability Leadership (Graduate Certificate) Food Safety and Protection (Graduate Certificate) Food and Nutrition Entrepreneurship (BAS) Food and Nutrition Entrepreneurship BS Forensic Psychology (MS) Forensic Science (PSM) Geographic Information Science (BS) Geographic Information Science (Undergraduate Certificate) Geography (BA) Geography (BS) Gifted Education (Graduate Certificate) Global Development and Innovation (Graduate Certificate) Global Education (MEd) Global Health (BA) Global Management (BGM) Global Security (MA) Global Security - Cybersecurity (MA) Global Studies (BA) Global Technology &amp; Development (Applied International Development) (MS) Global Technology and Development (MS) Graphic Information Technology (BAS) Graphic Information Technology (BS) Graphic Information Technology (MS) HR and Employment Law (MLS) Health Care Compliance and Regulations (BS) Health Care Coordination (BS) Health Care Innovation (Graduate Certificate) Health Education and Health Promotion (BS) Health Entrepreneurship and Innovation (BAS) Health Entrepreneurship and Innovation (BS) Health Informatics (MAS) Health Sciences (BAS) Health Sciences (BS) Healthcare Innovation (MHI) Healthy Lifestyles Coaching (Health Sciences) (BS) History (BA) History (MA) Homeland Security (Graduate Certificate) Homeland Security (MA) Homeland Security (Undergraduate Certificate) Indigenous Education (MA) Industrial Engineering (MS) Information Technology (BS) Information Technology (MS) Integrated Behavioral Health - Clinical (Graduate Certificate) Integrated Behavioral Health - Management (Graduate Certificate) Integrative Health (BS) Intellectual Property Law (MLS) Interdisciplinary Arts and Performance (BA) Interdisciplinary Studies (BA) Interdisciplinary Studies - Organizational Studies (BA) International Health Management (MIHM) International Public Health (BIPH) International Trade (BS) Internet &amp; Web Development (Applied Science BAS) Justice Studies (BS) Law Enforcement Administration (Graduate Certificate) Law and Sustainability (MLS) Leadership and Innovation (EdD) Leadership and Management (MALM) - Thunderbird Lean Six Sigma Black Belt (Graduate Certificate) Learning Design and Technologies (MEd) Legal Studies (MLS) Liberal Studies (BA) Liberal Studies (MLSt) MBA - Master of Business Administration MBA/MS - Industrial Engineering MBA/MSE - Electrical Engineering Management (BS) Marketing (BS) Mass Communication and Media Studies (BA) Materials Science and Engineering (MS) Mathematical Concepts of Engineering (Undergraduate Certificate) Medical Nutrition (MS) Nonprofit Leadership and Management (Graduate Certificate) Nonprofit Leadership and Management (MNLM) Nuclear Power Generation (Graduate Certificate) Nurse Education in Academic and Practice Settings (Graduate Certificate) Nursing (MS) Nursing - Nursing Education (MS) Nursing - RN to BSN Nutritional Science (Dietetics) (MS) Operations Management (Applied Science BAS) Organizational Leadership (BA) Organizational Leadership (MS) Organizational Leadership - Project Management (BA) Philosophy (BA) Philosophy (Morality, Politics and Law) (BA) Physics (BA) Political Psychology (MA) Political Science (BA) Political Science (BS) Program Evaluation (Graduate Certificate) Program Evaluation and Data Analytics (MS) Project Management (BAS) Psychology (BA) Psychology (BS) Psychology (MS) Psychology - Forensic Psychology (BA) Psychology - Forensic Psychology (BS) Public Interest Technology (MS) Public Safety Leadership and Administration (MPSLA) Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA) Public Safety Leadership and Administration – Executive Police Administration (MPSLA) Public Service and Public Policy (BS) Public Service and Public Policy - Emergency Management Homeland Security (BS) RN to BSN – Concurrent Enrollment (BSN) Regulatory Science (MS) Regulatory Science – Food Safety (MS) Religious Studies - Religion, Culture and Public Life (BA) Science of Health Care Delivery (Graduate Certificate) Science of Health Care Delivery (MS) Social Entrepreneurship and Community Development (Graduate Certificate) Social Justice and Human Rights (MA) Social Work (MSW) Sociology (BS) Sociology (MA) Software Engineering (BS) Spanish (BA) Special Education (Applied Behavior Analysis) (MA) Special Education - Autism Spectrum Disorders (MA) Speech and Hearing Science (BS) Sports Law and Business (MLS) Supply Chain Management (BS) Supply Chain Management (MS) Sustainability (BA) Sustainability (BS) Sustainability (Graduate Certificate) Sustainability Leadership (EMSL) Sustainability Leadership (MSL) Sustainable Engineering (MSE) Sustainable Food Systems (BS) Sustainable Food Systems (MS) Sustainable Tourism (Graduate Certificate) Sustainable Tourism (MST) Teaching English to Speakers of Other Languages (MTESOL) Technical Communication (BS) Technical Communication (Graduate Certificate) Technical Communication (MS) Technical Communication - User Experience (BS) Technological Entrepreneurship and Management (BS) Technological Leadership (BS) Tourism and Recreation Management (BS) Urban Planning (BSP) Women and Gender Studies (BA) World War II Studies (MA) No results found. List is empty.&lt;---&gt;Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biological Sciences – Biology and Society (BS) Biological Sciences – Conservation Biology and Ecology (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Financial Planning (BA) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Construction Management and Technology (MS) Contract Management (MLS) Corporate and Health Care Compliance (MLS) Corrections Management (Graduate Certificate) Criminal Justice (MA) Criminal Law (MLS) Criminal Sentencing and Sentencing Advocacy (Graduate Certificate) Criminology and Criminal Justice (BS) Curriculum and Instruction: Early Childhood Education (MEd) Curriculum and Instruction: Gifted Education (MEd) Cybersecurity (MCS) Cybersecurity Policy and Management (MA) Digital Audience Strategy (Graduate Certificate) Digital Audience Strategy (MS) Digital Audiences (BS) Early Childhood Studies (BAS) Economics (BS) - Business Economics (BS) - Liberal Arts Education (Educating Multilingual Learners) (MA) Education (MA) Education - Literacy Education (MA) Educational Leadership (Principalship) (MEd) Educational Studies (BAE) Educational Studies - Early Childhood Education (BAE) Electrical Engineering (BSE) Electrical Engineering (MSE) Electrical Engineering - Electric Power and Energy Systems (BSE) Emergency Management (MA) Emergency Management and Homeland Security (EMHS) Engineering Management (BSE) Engineering Science in Software Engineering (MSE) Engineering: Engineering Management (MEng) Engineering: Quality, Reliability and Statistical Engineering (MEng) Engineering: Systems Engineering (MEng) English (BA) English (MA) English as a Second Language (Graduate Certificate) Executive Fire Administration (MA) Executive Master of Public Administration (EMPA) Family &amp; Human Development (BS) Family &amp; Human Development (MS) Film and Media Studies (BA) Film and Media Studies (MAS) Food Policy and Sustainability Leadership (Graduate Certificate) Food Safety and Protection (Graduate Certificate) Food and Nutrition Entrepreneurship (BAS) Food and Nutrition Entrepreneurship BS Forensic Psychology (MS) Forensic Science (PSM) Geographic Information Science (BS) Geographic Information Science (Undergraduate Certificate) Geography (BA) Geography (BS) Gifted Education (Graduate Certificate) Global Development and Innovation (Graduate Certificate) Global Education (MEd) Global Health (BA) Global Management (BGM) Global Security (MA) Global Security - Cybersecurity (MA) Global Studies (BA) Global Technology &amp; Development (Applied International Development) (MS) Global Technology and Development (MS) Graphic Design (BSD) Graphic Information Technology (BAS) Graphic Information Technology (BS) Graphic Information Technology (MS) HR and Employment Law (MLS) Health Care Compliance and Regulations (BS) Health Care Coordination (BS) Health Care Innovation (Graduate Certificate) Health Education and Health Promotion (BS) Health Entrepreneurship and Innovation (BAS) Health Entrepreneurship and Innovation (BS) Health Informatics (MAS) Health Sciences (BAS) Health Sciences (BS) Healthcare Innovation (MHI) Healthy Lifestyles Coaching (Health Sciences) (BS) History (BA) History (MA) Homeland Security (Graduate Certificate) Homeland Security (MA) Homeland Security (Undergraduate Certificate) Indigenous Education (MA) Industrial Engineering (MS) Information Technology (BS) Information Technology (MS) Integrated Behavioral Health - Clinical (Graduate Certificate) Integrated Behavioral Health - Management (Graduate Certificate) Integrative Health (BS) Intellectual Property Law (MLS) Interdisciplinary Arts and Performance (BA) Interdisciplinary Studies (BA) Interdisciplinary Studies - Organizational Studies (BA) International Health Management (MIHM) International Public Health (BIPH) International Trade (BS) Internet &amp; Web Development (Applied Science BAS) Justice Studies (BS) Law Enforcement Administration (Graduate Certificate) Law and Sustainability (MLS) Leadership and Innovation (EdD) Leadership and Management (MALM) - Thunderbird Lean Six Sigma Black Belt (Graduate Certificate) Learning Design and Technologies (MEd) Legal Studies (MLS) Liberal Studies (BA) Liberal Studies (MLSt) MBA - Master of Business Administration MBA/MS - Industrial Engineering MBA/MSE - Electrical Engineering Management (BS) Marketing (BS) Mass Communication and Media Studies (BA) Materials Science and Engineering (MS) Mathematical Concepts of Engineering (Undergraduate Certificate) Medical Nutrition (MS) Nonprofit Leadership and Management (Graduate Certificate) Nonprofit Leadership and Management (MNLM) Nuclear Power Generation (Graduate Certificate) Nurse Education in Academic and Practice Settings (Graduate Certificate) Nursing (MS) Nursing - Nursing Education (MS) Nursing - RN to BSN Nutritional Science (Dietetics) (MS) Operations Management (Applied Science BAS) Organizational Leadership (BA) Organizational Leadership (MS) Organizational Leadership - Project Management (BA) Philosophy (BA) Philosophy (Morality, Politics and Law) (BA) Physics (BA) Political Psychology (MA) Political Science (BA) Political Science (BS) Program Evaluation (Graduate Certificate) Program Evaluation and Data Analytics (MS) Project Management (BAS) Psychology (BA) Psychology (BS) Psychology (MS) Psychology - Forensic Psychology (BA) Psychology - Forensic Psychology (BS) Public Interest Technology (MS) Public Safety Leadership and Administration (MPSLA) Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA) Public Safety Leadership and Administration – Executive Police Administration (MPSLA) Public Service and Public Policy (BS) Public Service and Public Policy - Emergency Management Homeland Security (BS) RN to BSN – Concurrent Enrollment (BSN) Regulatory Science (MS) Regulatory Science – Food Safety (MS) Religious Studies - Religion, Culture and Public Life (BA) Science of Health Care Delivery (Graduate Certificate) Science of Health Care Delivery (MS) Social Entrepreneurship and Community Development (Graduate Certificate) Social Justice and Human Rights (MA) Social Work (MSW) Sociology (BS) Sociology (MA) Software Engineering (BS) Spanish (BA) Special Education (Applied Behavior Analysis) (MA) Special Education - Autism Spectrum Disorders (MA) Speech and Hearing Science (BS) Sports Law and Business (MLS) Supply Chain Management (BS) Supply Chain Management (MS) Sustainability (BA) Sustainability (BS) Sustainability (Graduate Certificate) Sustainability Leadership (EMSL) Sustainability Leadership (MSL) Sustainable Engineering (MSE) Sustainable Food Systems (BS) Sustainable Food Systems (MS) Sustainable Tourism (Graduate Certificate) Sustainable Tourism (MST) Teaching English to Speakers of Other Languages (MTESOL) Technical Communication (BS) Technical Communication (Graduate Certificate) Technical Communication (MS) Technical Communication - User Experience (BS) Technological Entrepreneurship and Management (BS) Technological Leadership (BS) Tourism and Recreation Management (BS) Urban Planning (BSP) Women and Gender Studies (BA) World War II Studies (MA) No results found. List is empty.
+For tag &lt;li&gt; count mismatch 322---326
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/freshman/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/freshman/
+MisMatch :
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 85---84
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/graduate/
+MisMatch :
+For tag &lt;p&gt; count mismatch 96---95
+For tag &lt;a&gt; count mismatch 163---162
+false  || $70: U.S. Citizen, U.S. Permanent Resident, In Application for Permanent Residency, DACA, International online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---79
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/home-school/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/home-school/
+MisMatch :
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 90---89
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/international/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/international/
+MisMatch :
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 82---81
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/transfer/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/transfer/
+MisMatch :
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 75---73
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/
+MisMatch :
+false  || Details&lt;---&gt;Digital audience certification
+false  || 1000&lt;---&gt;1,260
+false  || The online Graduate Certificate in Digital Audiences prepares students to execute digital audience strategy in any industry. Students learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. This program is designed for professionals who want to develop new skills, take on new responsibilities or more effectively promote their work.&lt;---&gt;The online graduate certificate in digital audiences prepares you to execute digital audience strategy in any industry. You’ll learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. This program is designed for professionals who want to develop new skills, take on new responsibilities or more effectively promote their work.
+false  || Students in the Cronkite School’s Digital Audiences Graduate Certificate use measurement skills to develop strategies and tactics to grow audiences through search engine optimization, search engine marketing, paid and organic social media campaigns, and digital content creation.&lt;---&gt;Students in the Cronkite School’s digital audiences graduate certificate use measurement skills to develop strategies and tactics to grow audiences through search engine optimization (SEO), search engine marketing (SEM), paid and organic social media campaigns, and digital content creation.
+false  || The digital audiences certificate program prepares students for work in digital audience engagement through a data-driven, content-focused curriculum. Working hands on with current, industry-grade tools and practices, students discover how to create digital content and campaigns intended to reach target audiences. Students use audience data to identify target audiences and then formulate effective content across websites, search engines and social media. Students then track the impact of digital content, analyzing audience behavior and content performance. They put this knowledge into practice in real-time, tactical exercises using "live" tools such as Google Analytics and Facebook Audience Insights, as well as simulated environments. Graduates who earn this certificate will be ready to drive strategy execution and digital audience engagement, and be competitive in the fast-changing fields of social media, digital content and audience development.&lt;---&gt;The digital audiences certificate program prepares you for work in digital audience engagement through a data-driven, content-focused curriculum. Working hands on with current, industry-grade tools and practices, you’ll discover how to create digital content and targeted campaigns. You’ll use audience data to identify target audiences and then formulate effective content across websites, search engines and social media. You’ll learn how to track the impact of digital content, analyzing audience behavior and content performance. You’ll put this knowledge into practice in real-time, tactical exercises using "live" tools such as Google Analytics and Facebook Audience Insights, as well as simulated environments. Graduates who earn this certificate will be ready to drive strategy execution and digital audience engagement, and be competitive in the fast-changing fields of social media, digital content and audience development.
+false  || The certificate has far-reaching appeal and application. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who can execute campaigns to reach large online audiences in order to increase sales, advertising, donations, political support and community cohesion. This certificate will prepare professionals to advance their own careers and advance the work of their employers by creating content to engage digital audiences.&lt;---&gt;The certificate has far-reaching appeal and application. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who can execute campaigns to reach large online audiences in order to increase sales, advertising, donations, political support and community cohesion. This certificate prepares professionals to advance their own careers while advancing the work of their employers by engaging digital audiences.
+false  || This graduate certificate differs from the Cronkite School's Master of Science in Digital Audience Strategy in a few ways. This graduate certificate does not include the master's capstone course or additional coursework outside of the digital audiences core curriculum such as Media Law and Digital Media Entrepreneurship. This narrower scope allows students to focus on tactical skills needed to execute digital campaigns rather than preparing them to lead development and management of organization-wide digital strategy.&lt;---&gt;This graduate certificate differs from the Cronkite School's Master of Science in digital audience strategy. This certificate does not include the master's capstone course or additional coursework outside of the digital audiences core curriculum (such as Media Law and Digital Media Entrepreneurship). This narrower scope allows you to focus on tactical skills needed to execute digital campaigns rather than preparing them to lead development and management of organization-wide digital strategy.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+false  || media partnerships (beyond internships).&lt;---&gt;media partnerships.
+For tag &lt;a&gt; count mismatch 162---161
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+For tag &lt;li&gt; count mismatch 83---79
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/
+MisMatch :
+false  || Related careers&lt;---&gt;GIS skills for any industry
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/undergraduate-certificate-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-homeland-security/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/applied-science-nutrition/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-science-nutrition/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a nutrition and entrepreneurship degree?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 86---84
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/applied-leadership-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-leadership-bas/
+MisMatch :
+For tag &lt;p&gt; count mismatch 118---115
+For tag &lt;a&gt; count mismatch 174---169
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 76---74
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/art-digital-photography-bfa/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-digital-photography-bfa/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---94
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/art-museum-studies-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-museum-studies-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a museum studies degree?
+false  || Admission requirements&lt;---&gt;Apply for your online art degree in museum studies
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 101---100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/astronomy-bachelors/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/astronomy-bachelors/
+MisMatch :
+false  || Related careers&lt;---&gt;Astronomy bachelor’s degree jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/
+MisMatch :
+For tag &lt;p&gt; count mismatch 118---115
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 78---76
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/
+MisMatch :
+For tag &lt;p&gt; count mismatch 118---115
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---78
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/
+MisMatch :
+For tag &lt;p&gt; count mismatch 112---109
+For tag &lt;a&gt; count mismatch 176---171
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---78
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-anthropology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-anthropology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-art-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-art-history/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---94
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/
+MisMatch :
+false  || Related careers&lt;---&gt;Jobs for educational studies degree holders
+false  || Admission requirements&lt;---&gt;Apply for the ASU teachers college
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-english/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-english/
+MisMatch :
+false  || Related careers&lt;---&gt;What can I do with an English degree?
+false  || Admission requirements&lt;---&gt;Apply to earn your degree in English
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-geography/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-geography/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-global-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-global-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 96---95
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-history/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/
+MisMatch :
+false  || Details&lt;---&gt;Why earn a mass communication degree?
+false  || Study at our prestigious journalism school&lt;---&gt;Study at our award-winning journalism school
+false  || 1,000&lt;---&gt;1,260
+false  || The Bachelor of Arts in Mass Communication and Media Studies at Arizona State University's Walter Cronkite School of Journalism and Mass Communication, one of the nation’s premier journalism schools, explores global mass communication issues from all dimensions: societal, cultural, historical, political, economic, technological and legal.&lt;---&gt;The Bachelor of Arts in Mass Communication and Media Studies at Arizona State University's Walter Cronkite School of Journalism and Mass Communication, one of the nation’s premier journalism schools, explores global mass communication issues from all dimensions: societal, cultural, historical, political, economic, ethical, technological and legal.
+false  || A sophisticated understanding of mass communication is a critical asset for careers in business, government, community and the non-profit sectors. As a student in the Mass Communication and Media Studies program, you will examine a variety of media and communication subjects including History of Mass Communication, Social Media, and Political Communication.&lt;---&gt;A sophisticated understanding of mass communication and how it influences our lives is a critical asset for careers in media, business, government, community and non-profit sector. As a student in the mass communication and media studies degree program, you’ll examine a variety of media and communication subjects, such as the history of mass communication, social media and political communication. Exploratory and flexible, the program is anchored by a single required course (Media and Society). Students pursue their academic path by following their interests in media topics.
+false  || With courses taught by the Cronkite School’s top-tier faculty, including Pulitzer Prize winning journalist Steven Doig, media literacy advocate and researcher Dr. Mary-Lou Galician and new media pioneer Dan Gillmor, this program is designed to give you a deep and nuanced understanding of the growing importance, power, influence and changing nature of media in the world. Program courses include: Media Issues in American Pop Culture, Race, Gender, and Media, and Visual Communication.&lt;---&gt;With courses taught by the Cronkite School’s top-tier faculty, including Pulitzer Prize winning journalist Steven Doig, strategic communications researcher Dr. Dawn Gilpin and new media pioneer Dan Gillmor, this program is designed to give you a deep and nuanced understanding of the growing importance, power, influence and changing nature of media in the world. Program courses include Media Issues in American Pop Culture; Race, Gender and Media; and Visual Communication.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+false  || media partnerships (beyond internships).&lt;---&gt;media partnerships.
+For tag &lt;a&gt; count mismatch 172---167
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Sacramento Bee executive editor Rick Rodriguez. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer Prize-winning reporter Steve Doig. Associate Professor Sharon Bramlett-Solomon, distinguished scholar in media and culture. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive. Associate Professor Dawn Gilpin, strategic communications scholar and practitioner.
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Sacramento Bee executive editor Rick Rodriguez. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer Prize-winning reporter Steve Doig. Associate Professor Sharon Bramlett-Solomon, distinguished scholar in media and culture. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive. Associate Professor Dawn Gilpin, strategic communications scholar and practitioner.
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---96
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-philosophy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-philosophy/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-political-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-political-science/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-spanish/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-spanish/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-sustainability/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || Coolest Schools by Sier ra Club for campus sustainability.&lt;---&gt;Coolest Schools by Sierra Club for campus sustainability.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 85---84
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 113---112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 113---112
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-international-public-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-international-public-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 91---90
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-liberal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-liberal-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-biochemistry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-biochemistry/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 178---173
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-communication/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-community-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-community-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-geography/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-geography/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 111---110
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 177---172
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 91---90
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-information-technology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-information-technology/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with an information technology degree?
+false  || Admission requirements&lt;---&gt;Apply to the ASU Online information technology program
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 98---97
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-integrative-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-integrative-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 170---165
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 88---87
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-justice-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-justice-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 94---93
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-political-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-political-science/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-software-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-software-engineering/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-sociology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sociology/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a sociology degree?
+false  || Admission requirements&lt;---&gt;Apply to earn your degree in sociology
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-technical-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technical-communication/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sustainability/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 84---83
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-urban-planning/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-urban-planning/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biochemistry-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biochemistry-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a biochemistry Bachelor of Arts degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 179---174
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 97---96
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a biomedical science degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 178---173
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biological-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/digital-audiences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/digital-audiences-bs/
+MisMatch :
+false  || Details&lt;---&gt;What is digital audiences?
+false  || 1000&lt;---&gt;1,260
+false  || The online Bachelor of Science in Digital Audiences gives students the skills they need to use digital and social media to deepen impact in any industry, including strategy development, digital analytics, SEO and SEM campaigns, paid and organic social campaigns, audience research and more.&lt;---&gt;The online Bachelor of Science in digital audiences gives students the skills they need to use digital and social media to deepen impact in any industry. You’ll learn how to harness strategy development, digital analytics, SEO and SEM campaigns, paid and organic social campaigns and audience research to grow and engage audiences in meaningful, measurable ways.
+false  || Companies and organizations around the world have a critical and growing need to connect with audiences on digital and social media to increase impact in everything from sales to community cohesion. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who understand how to reach large online audiences in order to increase sales, advertising, donations, political support and community impact.&lt;---&gt;Corporations, advocacy groups, entrepreneurs, government agencies, communications firms, community groups, news organizations and nonprofits all need professionals who understand how to cultivate online audiences to increase sales, advertising, donations, political support and community impact.
+false  || The expertise required to leverage online audiences is different from traditional training in public relations. It requires training in social science research, real-time data analysis, digital audience behavior, multimedia content creation, ethics, law, entrepreneurship, project management, writing and public speaking. The online BS in Digital Audiences blends these disciplines in a data-driven, hands-on curriculum.&lt;---&gt;The expertise required to grow and leverage online audiences differs from traditional training in public relations. It requires training in social science research, real-time data analysis, digital audience behavior, multimedia content creation, ethics, law, entrepreneurship, project management, writing and public speaking. The online BS in digital audiences blends these disciplines in a data-driven, hands-on curriculum.
+false  || Through required coursework, students learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. Using those measurement skills, students learn how to grow audiences through applying search engine optimization, search engine marketing, paid and organic social media campaigns and audience research in digital content creation. In the program’s capstone experience, students work with real-world clients to create audience-first content and develop, test and execute audience growth strategies in real time.&lt;---&gt;Through required coursework, you’ll learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. Using those measurement skills, students learn how to grow audiences through applying search engine optimization (SEO), search engine marketing (SEM), paid and organic social media campaigns, and audience research in digital content creation. In the program’s capstone experience, you’ll work with real-world clients to create audience-first content and develop, test and execute audience growth strategies in real time.
+false  || The Cronkite School attracts award-winning professional journalists and world-class media scholars from the country:&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication attracts award-winning professional journalists and world-class media scholars from across the country.
+false  || The Cronkite School attracts award-winning professional journalists and world-class media scholars from the country:&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication attracts award-winning professional journalists and world-class media scholars from across the country.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+For tag &lt;a&gt; count mismatch 172---167
+false  || Former Washington Post Executive Editor Leonard Downie Jr. Former BET Vice President Retha Hill Digital media leader Dan Gillmor Former Sacramento Bee Executive Editor Rick Rodriguez Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel Pulitzer-Prize winning reporter Steve Doig Former Knight Foundation journalism innovator Eric Newton&lt;---&gt;Former Washington Post executive editor Leonard Downie, Jr. Former BET Vice President Retha Hill. Digital media leader Dan Gillmor. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || Former Washington Post Executive Editor Leonard Downie Jr. Former BET Vice President Retha Hill Digital media leader Dan Gillmor Former Sacramento Bee Executive Editor Rick Rodriguez Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel Pulitzer-Prize winning reporter Steve Doig Former Knight Foundation journalism innovator Eric Newton&lt;---&gt;Former Washington Post executive editor Leonard Downie, Jr. Former BET Vice President Retha Hill. Digital media leader Dan Gillmor. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/early-childhood-applied-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/early-childhood-applied-science/
+MisMatch :
+false  || Related careers&lt;---&gt;What can I do with an early childhood studies degree?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 176---171
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 68---66
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/
+MisMatch :
+false  || Related careers&lt;---&gt;Related Careers
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 177---172
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/engineering-engineering-management-bse/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/engineering-engineering-management-bse/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/geographic-information-science-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/geographic-information-science-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/food-and-nutrition-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/food-and-nutrition-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;Use your food and nutrition degrees to create a startup and lead the industry
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 98---97
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/global-management-bgm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/global-management-bgm/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/graphic-information-technology-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-information-technology-bas/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a bachelor’s degree of graphic information technology?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 176---171
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---78
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-innovation-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bas/
+MisMatch :
+For tag &lt;p&gt; count mismatch 117---114
+For tag &lt;a&gt; count mismatch 174---169
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 76---74
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-innovation-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-sciences-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;What kind of career can I get with a health sciences degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 99---98
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/inquiry-based-learning-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/inquiry-based-learning-degree/
+MisMatch :
+false  || Related careers&lt;---&gt;What jobs can I get with this leadership degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What jobs can I get with an interdisciplinary arts degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/international-trade-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/international-trade-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;International trade jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/medicinal-chemistry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/medicinal-chemistry/
+MisMatch :
+false  || Related careers&lt;---&gt;Medicinal chemistry jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 178---173
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 97---96
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/physics-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/physics-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a BA in physics?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/project-management-transfer-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/project-management-transfer-degree/
+MisMatch :
+false  || Related careers&lt;---&gt;What jobs can I get with a project management degree?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 76---74
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/speech-and-hearing-science-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/speech-and-hearing-science-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 180---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 91---90
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/sustainable-food-systems/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sustainable-food-systems/
+MisMatch :
+false  || Related careers&lt;---&gt;Food sustainability jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 88---87
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/technical-communication-user-experience-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/technical-communication-user-experience-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/digital-audience-strategy-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/digital-audience-strategy-ms/
+MisMatch :
+false  || Details&lt;---&gt;Learn digital audience strategy
+false  || 1,000&lt;---&gt;1,260
+false  || The online Master of Science in Digital Audience Strategy prepares students to design and execute large-scale digital audience strategy through a data-driven, multidisciplinary, hands-on curriculum. Students learn to measure and analyze how consumers interact with content online, on social media and on mobile devices.&lt;---&gt;The online Master of Science in digital audience strategy prepares you to design and execute large-scale digital audience growth and engagement strategies through a data-driven, multidisciplinary, hands-on curriculum. You’ll learn to measure and analyze how consumers interact with content online, on social media and on mobile devices.
+false  || Students in the online MS in Digital Audience Strategy learn strategies and tactics to grow audiences through audience-first digital content that leverages search engine optimization, search engine marketing, audience research, and paid and organic social media campaigns. Students work with real-world clients to analyze content performance, and develop, test and execute audience growth strategies in real time.&lt;---&gt;Students in the online MS in digital audience strategy learn strategies and tactics to grow audiences through audience-first digital content that leverages search engine optimization (SEO), search engine marketing (SEM), audience research, and paid and organic social media campaigns. You’ll work with real-world clients to analyze content performance and develop, test and execute audience growth strategies in real time.
+false  || Through required coursework in ethics, media law and entrepreneurship, students learn to make ethical business decisions regarding consumer privacy, digital data security and community engagement. Through elective courses, students develop additional expertise in areas such as management and intellectual property. Students graduate from the program ready to drive innovation and business development in the digital age.&lt;---&gt;Through required coursework in ethics, media law and entrepreneurship, you’ll learn to make ethical business decisions regarding consumer privacy, digital data security and community engagement. Through elective courses, you’ll develop additional expertise in areas such as data science, leadership and management, and intellectual property. Students graduate from the program ready to drive digital innovation and business development.
+false  || Organizations in both the public and private sectors have a critical and growing need to connect with audiences on digital and social media. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who understand how to reach large online audiences with content in order to increase sales, advertising, donations, political support and community cohesion. The expertise required to leverage online audiences includes training in multimedia content creation, social science research, real-time data analysis, digital audience behavior, ethics, law, entrepreneurship, leadership, project management, writing and public speaking&lt;---&gt;Organizations in both the public and private sectors have a critical and growing need to connect with audiences on digital and social media. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who understand how to cultivate large online audiences with content in order to increase sales, advertising, donations, political support and community cohesion. The expertise required to leverage online audiences includes training in multimedia content creation, social science research, real-time data analysis, digital audience behavior, ethics, law, entrepreneurship, leadership, project management, writing and public speaking.
+false  || The Cronkite School's online Master of Science in Digital Audience Strategy blends all of these disciplines to prepare students to be leaders in digital audience growth and innovation.&lt;---&gt;The Cronkite School's online Master of Science in digital audience strategy blends all of these disciplines to prepare students to be leaders in digital audience growth and innovation.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+For tag &lt;a&gt; count mismatch 162---160
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+For tag &lt;li&gt; count mismatch 84---82
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-nutritional-science-dietetics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-nutritional-science-dietetics/
+MisMatch :
+false  || Related careers&lt;---&gt;What can I do with a dietetics degree?
+false  || The Master of Science in nutritional science (dietetics) program is designed for registered dietitians seeking an advanced dietetics degree. This curriculum emphasizes the scientific foundations of nutrition and reinforces abilities such as project management, interpreting research and critical inquiry.&lt;---&gt;The Master of Science in nutritional science – dietetics program is designed for registered dietitians seeking an advanced dietetics degree. This curriculum emphasizes the scientific foundations of nutrition and reinforces abilities such as project management, interpreting research and critical inquiry.
+false  || The ASU Online Master of Science in nutritional science (dietetics) program is designed for RDNs with at least one year of experience in the field. It provides an opportunity to pursue advanced education and develop professional competencies in dietetics, leading to a variety of positive outcomes for individuals and communities.&lt;---&gt;The ASU Online Master of Science in nutritional science (dietetics) program is designed for RDNs. It provides an opportunity to pursue advanced education and develop professional competencies in dietetics, leading to a variety of positive outcomes for individuals and communities.
+false  || While students are required to have one year of professional experience as a registered dietitian to qualify for admission to this master’s in dietetics program, you do not need to be employed when applying or while earning your degree. Additionally, the program can be completed on a full- or part-time basis.&lt;---&gt;While you must be a registered dietitian to qualify for admission to this master’s in dietetics program, you do not need to be employed when applying or while earning your degree. Additionally, the program can be completed on a full- or part-time basis.
+For tag &lt;a&gt; count mismatch 161---160
+false  || Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree, current RD credential, and one year of full-time work experience as an RD. GPA: A minimum of a 3.00 cumulative GPA (scale is 4.00 = "A") or better is required in the last two years of work leading to a bachelor's degree. Licensure: To verify professional standing, applicants must submit proof of Registered Dietitian status by accessing the Commission on Dietetic Registration's website using the Online Credential Verification Search. Examinations: Because passing the RD exam and gaining work experience in the field of dietetics are required for successful admission to the Master of Science in nutritional science (dietetics) program, the Nutrition Program Graduate Committee does not require applicants to take or submit scores from the Graduate Record Examination (GRE). Letters of Recommendation: Three letters of recommendation, including at least one from an employer or work supervisor. Written Statement: A one- to two-page, typed, double-spaced, personal statement addressing the following: significant professional responsibilities the applicant has held; professional goals and reasons for desiring to enroll in this program; strengths that will help the applicant succeed in this program and in reaching their professional goals; and personal interests in research, including, if applicable, studies involving the practice of dietetics.&lt;---&gt;Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree and current RDN credential. GPA: A minimum of a 3.00 cumulative GPA (scale is 4.00 = "A") or better is required in the last two years of work leading to a bachelor's degree. Licensure: To verify professional standing, applicants must submit proof of Registered Dietitian status by accessing the Commission on Dietetic Registration's website using the Online Credential Verification Search. Examinations: Because passing the RD exam and gaining work experience in the field of dietetics are required for successful admission to the Master of Science in nutritional science (dietetics) program, the Nutrition Program Graduate Committee does not require applicants to take or submit scores from the Graduate Record Examination (GRE). Letters of Recommendation: Two letters of recommendation, including at least one from an employer or work supervisor. Written Statement: A one- to two-page, typed, double-spaced, personal statement addressing the following: significant professional responsibilities the applicant has held; professional goals and reasons for desiring to enroll in this program; strengths that will help the applicant succeed in this program and in reaching their professional goals; and personal interests in research, including, if applicable, studies involving the practice of dietetics.
+false  || Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree, current RD credential, and one year of full-time work experience as an RD.&lt;---&gt;Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree and current RDN credential.
+false  || Letters of Recommendation: Three letters of recommendation, including at least one from an employer or work supervisor.&lt;---&gt;Letters of Recommendation: Two letters of recommendation, including at least one from an employer or work supervisor.
 </t>
   </si>
 </sst>
@@ -4225,7 +5468,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9">
@@ -4278,10 +5521,10 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13">
@@ -4292,10 +5535,10 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14">
@@ -4306,10 +5549,10 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15">
@@ -4320,10 +5563,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16">
@@ -4348,10 +5591,10 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18">
@@ -4684,10 +5927,10 @@
         <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>854</v>
       </c>
     </row>
     <row r="42">
@@ -4712,10 +5955,10 @@
         <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>855</v>
       </c>
     </row>
     <row r="44">
@@ -5020,10 +6263,10 @@
         <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>856</v>
       </c>
     </row>
     <row r="66">
@@ -5104,10 +6347,10 @@
         <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72">
@@ -5118,10 +6361,10 @@
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>225</v>
+        <v>858</v>
       </c>
     </row>
     <row r="73">
@@ -5132,10 +6375,10 @@
         <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>859</v>
       </c>
     </row>
     <row r="74">
@@ -5146,10 +6389,10 @@
         <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>860</v>
       </c>
     </row>
     <row r="75">
@@ -5160,10 +6403,10 @@
         <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>861</v>
       </c>
     </row>
     <row r="76">
@@ -5174,10 +6417,10 @@
         <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>237</v>
+        <v>862</v>
       </c>
     </row>
     <row r="77">
@@ -5188,10 +6431,10 @@
         <v>239</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>863</v>
       </c>
     </row>
     <row r="78">
@@ -5202,10 +6445,10 @@
         <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>864</v>
       </c>
     </row>
     <row r="79">
@@ -5216,10 +6459,10 @@
         <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>865</v>
       </c>
     </row>
     <row r="80">
@@ -5230,10 +6473,10 @@
         <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>866</v>
       </c>
     </row>
     <row r="81">
@@ -5244,10 +6487,10 @@
         <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>867</v>
       </c>
     </row>
     <row r="82">
@@ -5258,10 +6501,10 @@
         <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>255</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83">
@@ -5370,10 +6613,10 @@
         <v>278</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>869</v>
       </c>
     </row>
     <row r="91">
@@ -5398,10 +6641,10 @@
         <v>284</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>285</v>
+        <v>870</v>
       </c>
     </row>
     <row r="93">
@@ -5412,10 +6655,10 @@
         <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>871</v>
       </c>
     </row>
     <row r="94">
@@ -5426,10 +6669,10 @@
         <v>290</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>872</v>
       </c>
     </row>
     <row r="95">
@@ -5454,10 +6697,10 @@
         <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>873</v>
       </c>
     </row>
     <row r="97">
@@ -5468,10 +6711,10 @@
         <v>299</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>874</v>
       </c>
     </row>
     <row r="98">
@@ -5482,10 +6725,10 @@
         <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>875</v>
       </c>
     </row>
     <row r="99">
@@ -5496,10 +6739,10 @@
         <v>305</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>876</v>
       </c>
     </row>
     <row r="100">
@@ -5510,10 +6753,10 @@
         <v>308</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>877</v>
       </c>
     </row>
     <row r="101">
@@ -5524,10 +6767,10 @@
         <v>311</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>878</v>
       </c>
     </row>
     <row r="102">
@@ -5538,10 +6781,10 @@
         <v>314</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>879</v>
       </c>
     </row>
     <row r="103">
@@ -5552,10 +6795,10 @@
         <v>317</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>880</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +6809,10 @@
         <v>320</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>881</v>
       </c>
     </row>
     <row r="105">
@@ -5580,10 +6823,10 @@
         <v>323</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>324</v>
+        <v>882</v>
       </c>
     </row>
     <row r="106">
@@ -5594,10 +6837,10 @@
         <v>326</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
+        <v>883</v>
       </c>
     </row>
     <row r="107">
@@ -5608,10 +6851,10 @@
         <v>329</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>330</v>
+        <v>884</v>
       </c>
     </row>
     <row r="108">
@@ -5622,10 +6865,10 @@
         <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>333</v>
+        <v>885</v>
       </c>
     </row>
     <row r="109">
@@ -5636,10 +6879,10 @@
         <v>335</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>336</v>
+        <v>886</v>
       </c>
     </row>
     <row r="110">
@@ -5650,10 +6893,10 @@
         <v>338</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>339</v>
+        <v>887</v>
       </c>
     </row>
     <row r="111">
@@ -5664,10 +6907,10 @@
         <v>341</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>342</v>
+        <v>888</v>
       </c>
     </row>
     <row r="112">
@@ -5678,10 +6921,10 @@
         <v>344</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>889</v>
       </c>
     </row>
     <row r="113">
@@ -5692,10 +6935,10 @@
         <v>347</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>348</v>
+        <v>890</v>
       </c>
     </row>
     <row r="114">
@@ -5720,10 +6963,10 @@
         <v>353</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>354</v>
+        <v>891</v>
       </c>
     </row>
     <row r="116">
@@ -5734,10 +6977,10 @@
         <v>356</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>357</v>
+        <v>892</v>
       </c>
     </row>
     <row r="117">
@@ -5748,10 +6991,10 @@
         <v>359</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>360</v>
+        <v>893</v>
       </c>
     </row>
     <row r="118">
@@ -5762,10 +7005,10 @@
         <v>362</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>363</v>
+        <v>894</v>
       </c>
     </row>
     <row r="119">
@@ -5776,10 +7019,10 @@
         <v>365</v>
       </c>
       <c r="C119" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>366</v>
+        <v>895</v>
       </c>
     </row>
     <row r="120">
@@ -5790,10 +7033,10 @@
         <v>368</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>369</v>
+        <v>896</v>
       </c>
     </row>
     <row r="121">
@@ -5804,10 +7047,10 @@
         <v>371</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>372</v>
+        <v>897</v>
       </c>
     </row>
     <row r="122">
@@ -5818,10 +7061,10 @@
         <v>374</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>375</v>
+        <v>898</v>
       </c>
     </row>
     <row r="123">
@@ -5832,10 +7075,10 @@
         <v>377</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>378</v>
+        <v>899</v>
       </c>
     </row>
     <row r="124">
@@ -5846,10 +7089,10 @@
         <v>380</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>381</v>
+        <v>900</v>
       </c>
     </row>
     <row r="125">
@@ -5860,10 +7103,10 @@
         <v>383</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>384</v>
+        <v>901</v>
       </c>
     </row>
     <row r="126">
@@ -5874,10 +7117,10 @@
         <v>386</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>387</v>
+        <v>902</v>
       </c>
     </row>
     <row r="127">
@@ -5888,10 +7131,10 @@
         <v>389</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>390</v>
+        <v>903</v>
       </c>
     </row>
     <row r="128">
@@ -5916,10 +7159,10 @@
         <v>395</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>396</v>
+        <v>904</v>
       </c>
     </row>
     <row r="130">
@@ -5944,10 +7187,10 @@
         <v>401</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>402</v>
+        <v>905</v>
       </c>
     </row>
     <row r="132">
@@ -5958,10 +7201,10 @@
         <v>404</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133">
@@ -5972,10 +7215,10 @@
         <v>407</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>408</v>
+        <v>907</v>
       </c>
     </row>
     <row r="134">
@@ -5986,10 +7229,10 @@
         <v>410</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>411</v>
+        <v>908</v>
       </c>
     </row>
     <row r="135">
@@ -6000,10 +7243,10 @@
         <v>413</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>414</v>
+        <v>909</v>
       </c>
     </row>
     <row r="136">
@@ -6014,10 +7257,10 @@
         <v>416</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>417</v>
+        <v>910</v>
       </c>
     </row>
     <row r="137">
@@ -6028,10 +7271,10 @@
         <v>419</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>420</v>
+        <v>911</v>
       </c>
     </row>
     <row r="138">
@@ -6042,10 +7285,10 @@
         <v>422</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>423</v>
+        <v>912</v>
       </c>
     </row>
     <row r="139">
@@ -6056,10 +7299,10 @@
         <v>425</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>426</v>
+        <v>913</v>
       </c>
     </row>
     <row r="140">
@@ -6070,10 +7313,10 @@
         <v>428</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>429</v>
+        <v>914</v>
       </c>
     </row>
     <row r="141">
@@ -6084,10 +7327,10 @@
         <v>431</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>432</v>
+        <v>915</v>
       </c>
     </row>
     <row r="142">
@@ -6098,10 +7341,10 @@
         <v>434</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>435</v>
+        <v>916</v>
       </c>
     </row>
     <row r="143">
@@ -6112,10 +7355,10 @@
         <v>437</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>438</v>
+        <v>917</v>
       </c>
     </row>
     <row r="144">
@@ -6154,10 +7397,10 @@
         <v>446</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>447</v>
+        <v>918</v>
       </c>
     </row>
     <row r="147">
@@ -6168,10 +7411,10 @@
         <v>449</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>450</v>
+        <v>919</v>
       </c>
     </row>
     <row r="148">
@@ -6182,10 +7425,10 @@
         <v>452</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
-        <v>453</v>
+        <v>920</v>
       </c>
     </row>
     <row r="149">
@@ -6196,10 +7439,10 @@
         <v>455</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>456</v>
+        <v>921</v>
       </c>
     </row>
     <row r="150">
@@ -6224,10 +7467,10 @@
         <v>461</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>462</v>
+        <v>922</v>
       </c>
     </row>
     <row r="152">
@@ -6238,10 +7481,10 @@
         <v>464</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>465</v>
+        <v>923</v>
       </c>
     </row>
     <row r="153">
@@ -6252,10 +7495,10 @@
         <v>467</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>468</v>
+        <v>924</v>
       </c>
     </row>
     <row r="154">
@@ -6266,10 +7509,10 @@
         <v>470</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>471</v>
+        <v>925</v>
       </c>
     </row>
     <row r="155">
@@ -6280,10 +7523,10 @@
         <v>473</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>474</v>
+        <v>926</v>
       </c>
     </row>
     <row r="156">
@@ -6294,10 +7537,10 @@
         <v>476</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>477</v>
+        <v>927</v>
       </c>
     </row>
     <row r="157">
@@ -6308,10 +7551,10 @@
         <v>479</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D157" t="s">
-        <v>480</v>
+        <v>928</v>
       </c>
     </row>
     <row r="158">
@@ -6322,10 +7565,10 @@
         <v>482</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>483</v>
+        <v>929</v>
       </c>
     </row>
     <row r="159">
@@ -6336,10 +7579,10 @@
         <v>485</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>486</v>
+        <v>930</v>
       </c>
     </row>
     <row r="160">
@@ -6350,10 +7593,10 @@
         <v>488</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>489</v>
+        <v>931</v>
       </c>
     </row>
     <row r="161">
@@ -6364,10 +7607,10 @@
         <v>491</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
-        <v>492</v>
+        <v>932</v>
       </c>
     </row>
     <row r="162">
@@ -6392,10 +7635,10 @@
         <v>497</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
     </row>
     <row r="164">
@@ -6406,10 +7649,10 @@
         <v>500</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>501</v>
+        <v>934</v>
       </c>
     </row>
     <row r="165">
@@ -6420,10 +7663,10 @@
         <v>503</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>504</v>
+        <v>935</v>
       </c>
     </row>
     <row r="166">
@@ -6434,10 +7677,10 @@
         <v>506</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>507</v>
+        <v>936</v>
       </c>
     </row>
     <row r="167">
@@ -6448,10 +7691,10 @@
         <v>509</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>510</v>
+        <v>937</v>
       </c>
     </row>
     <row r="168">
@@ -6462,10 +7705,10 @@
         <v>512</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>513</v>
+        <v>938</v>
       </c>
     </row>
     <row r="169">
@@ -6476,10 +7719,10 @@
         <v>515</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>516</v>
+        <v>939</v>
       </c>
     </row>
     <row r="170">
@@ -6490,10 +7733,10 @@
         <v>518</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>519</v>
+        <v>940</v>
       </c>
     </row>
     <row r="171">
@@ -6504,10 +7747,10 @@
         <v>521</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>522</v>
+        <v>941</v>
       </c>
     </row>
     <row r="172">
@@ -6546,10 +7789,10 @@
         <v>530</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>531</v>
+        <v>942</v>
       </c>
     </row>
     <row r="175">
@@ -6574,10 +7817,10 @@
         <v>536</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>537</v>
+        <v>943</v>
       </c>
     </row>
     <row r="177">
@@ -6588,10 +7831,10 @@
         <v>539</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D177" t="s">
-        <v>540</v>
+        <v>944</v>
       </c>
     </row>
     <row r="178">
@@ -6602,10 +7845,10 @@
         <v>542</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>543</v>
+        <v>945</v>
       </c>
     </row>
     <row r="179">
@@ -6742,10 +7985,10 @@
         <v>572</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>573</v>
+        <v>946</v>
       </c>
     </row>
     <row r="189">
@@ -7652,10 +8895,10 @@
         <v>767</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D253" t="s">
-        <v>768</v>
+        <v>947</v>
       </c>
     </row>
     <row r="254">

--- a/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kartikmathpal/Downloads/RESTfulExample/src/main/java/com/kmathpal/rest/Model/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="843">
   <si>
     <t>Result</t>
   </si>
@@ -32,13 +32,4180 @@
   </si>
   <si>
     <t>EnvironmentB</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/chat-with-asu/
+EnvironmentB   :https://test.asuonline.asu.edu/chat-with-asu/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/
+EnvironmentB   :https://test.asuonline.asu.edu/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/admission/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/military-scholarship/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/military-scholarship/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/military-scholarship/
+EnvironmentB   :https://test.asuonline.asu.edu/military-scholarship/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/
+MisMatch :
+false  || ASU Online&lt;---&gt;All Online Degree Programs
+false  || Work in Progress&lt;---&gt;All online degree programs
+For tag &lt;h3&gt; count mismatch 0---1
+For tag &lt;p&gt; count mismatch 0---8
+For tag &lt;a&gt; count mismatch 45---356
+For tag &lt;ul&gt; count mismatch 5---14
+For tag &lt;li&gt; count mismatch 41---91
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/
+EnvironmentB   :https://test.asuonline.asu.edu/study/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/what-it-costs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/what-it-costs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/
+MisMatch :
+false  || Select a degree type Graduate Undergraduate Certificates No results found. List is empty.&lt;---&gt;Select a degree type Undergraduate Graduate Certificates No results found. List is empty.
+false  || Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Con</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/what-it-costs/scholarship-opportunities/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/what-it-costs/scholarship-opportunities/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/scholarship-opportunities/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/scholarship-opportunities/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/freshman/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/freshman/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/freshman/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/freshman/
+MisMatch :
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 85---84
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/graduate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/graduate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/graduate/
+MisMatch :
+For tag &lt;p&gt; count mismatch 96---95
+For tag &lt;a&gt; count mismatch 163---162
+false  || $70: U.S. Citizen, U.S. Permanent Resident, In Application for Permanent Residency, DACA, International online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---79
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/home-school/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/home-school/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/home-school/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/home-school/
+MisMatch :
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 90---89
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/international/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/international/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/international/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/international/
+MisMatch :
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 82---81
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/military/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/military/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/admission/military/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/military/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/transfer/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/transfer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/admission/transfer/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/transfer/
+MisMatch :
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 75---73
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/architecture-construction-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/architecture-construction-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/architecture-construction-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/architecture-construction-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/art-design-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/art-design-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/art-design-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/art-design-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/business-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/business-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/business-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/business-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/communications-media-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/communications-media-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/communications-media-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/communications-media-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/education-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/education-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/education-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/education-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/engineering-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/engineering-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/engineering-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/engineering-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/history-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/history-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/history-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/history-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/humanities-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/humanities-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/humanities-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/humanities-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/geographical-sciences-urban-planning/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/geographical-sciences-urban-planning/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/geographical-sciences-urban-planning/
+EnvironmentB   :https://test.asuonline.asu.edu/study/geographical-sciences-urban-planning/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/health-and-wellness/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/health-and-wellness/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/health-and-wellness/
+EnvironmentB   :https://test.asuonline.asu.edu/study/health-and-wellness/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/innovation-entrepreneur-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/innovation-entrepreneur-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/innovation-entrepreneur-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/innovation-entrepreneur-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/it-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/it-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/it-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/it-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/language-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/language-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/language-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/language-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/law-degrees-public-service/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/law-degrees-public-service/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/law-degrees-public-service/
+EnvironmentB   :https://test.asuonline.asu.edu/study/law-degrees-public-service/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/liberal-arts-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/liberal-arts-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/liberal-arts-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/liberal-arts-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/management-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/management-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/management-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/management-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/science-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/science-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/science-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/science-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/social-and-behavioral-sciences/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/social-and-behavioral-sciences/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/social-and-behavioral-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/study/social-and-behavioral-sciences/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/stem-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/stem-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/stem-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/stem-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/tech-computer-science-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/tech-computer-science-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/tech-computer-science-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/tech-computer-science-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/study/sustainability-degrees/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/study/sustainability-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/study/sustainability-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/sustainability-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/
+MisMatch :
+false  || Details&lt;---&gt;Digital audience certification
+false  || 1000&lt;---&gt;1,260
+false  || The online Graduate Certificate in Digital Audiences prepares students to execute digital audience strategy in any industry. Students learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. This program is designed for professionals who want to develop new skills, take on new responsibilities or more effectively promote their work.&lt;---&gt;The online graduate certificate in digital audiences prepares you to execute digital audience strategy in any industry. You’ll learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. This program is designed for professionals who want to develop new skills, take on new responsibilities or more effectively promote their work.
+false  || Students in the Cronkite School’s Digital Audiences Graduate Certificate use measurement skills to develop strategies and tactics to grow audiences through search engine optimization, search engine marketing, paid and organic social media campaigns, and digital content creation.&lt;---&gt;Students in the Cronkite School’s digital audiences graduate certificate use measurement skills to develop strategies and tactics to grow audiences through search engine optimization (SEO), search engine marketing (SEM), paid and organic social media campaigns, and digital content creation.
+false  || The digital audiences certificate program prepares students for work in digital audience engagement through a data-driven, content-focused curriculum. Working hands on with current, industry-grade tools and practices, students discover how to create digital content and campaigns intended to reach target audiences. Students use audience data to identify target audiences and then formulate effective content across websites, search engines and social media. Students then track the impact of digital content, analyzing audience behavior and content performance. They put this knowledge into practice in real-time, tactical exercises using "live" tools such as Google Analytics and Facebook Audience Insights, as well as simulated environments. Graduates who earn this certificate will be ready to drive strategy execution and digital audience engagement, and be competitive in the fast-changing fields of social media, digital content and audience development.&lt;---&gt;The digital audiences certificate program prepares you for work in digital audience engagement through a data-driven, content-focused curriculum. Working hands on with current, industry-grade tools and practices, you’ll discover how to create digital content and targeted campaigns. You’ll use audience data to identify target audiences and then formulate effective content across websites, search engines and social media. You’ll learn how to track the impact of digital content, analyzing audience behavior and content performance. You’ll put this knowledge into practice in real-time, tactical exercises using "live" tools such as Google Analytics and Facebook Audience Insights, as well as simulated environments. Graduates who earn this certificate will be ready to drive strategy execution and digital audience engagement, and be competitive in the fast-changing fields of social media, digital content and audience development.
+false  || The certificate has far-reaching appeal and application. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who can execute campaigns to reach large online audiences in order to increase sales, advertising, donations, political support and community cohesion. This certificate will prepare professionals to advance their own careers and advance the work of their employers by creating content to engage digital audiences.&lt;---&gt;The certificate has far-reaching appeal and application. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who can execute campaigns to reach large online audiences in order to increase sales, advertising, donations, political support and community cohesion. This certificate prepares professionals to advance their own careers while advancing the work of their employers by engaging digital audiences.
+false  || This graduate certificate differs from the Cronkite School's Master of Science in Digital Audience Strategy in a few ways. This graduate certificate does not include the master's capstone course or additional coursework outside of the digital audiences core curriculum such as Media Law and Digital Media Entrepreneurship. This narrower scope allows students to focus on tactical skills needed to execute digital campaigns rather than preparing them to lead development and management of organization-wide digital strategy.&lt;---&gt;This graduate certificate differs from the Cronkite School's Master of Science in digital audience strategy. This certificate does not include the master's capstone course or additional coursework outside of the digital audiences core curriculum (such as Media Law and Digital Media Entrepreneurship). This narrower scope allows you to focus on tactical skills needed to execute digital campaigns rather than preparing them to lead development and management of organization-wide digital strategy.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+false  || media partnerships (beyond internships).&lt;---&gt;media partnerships.
+For tag &lt;a&gt; count mismatch 162---161
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+For tag &lt;li&gt; count mismatch 83---79
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/food-safety-grad-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/food-safety-grad-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/food-safety-grad-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/food-safety-grad-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/
+MisMatch :
+false  || Related careers&lt;---&gt;GIS skills for any industry
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-biomimicry/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-biomimicry/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-biomimicry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-biomimicry/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-clinical-research-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-clinical-research-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-clinical-research-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-clinical-research-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-corrections-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-corrections-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-corrections-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-corrections-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-english-second-language/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-english-second-language/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-english-second-language/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-english-second-language/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-gifted-education/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-gifted-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-gifted-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-gifted-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-health-care-innovation/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-health-care-innovation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-health-care-innovation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-health-care-innovation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/graduate-sustainability-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-sustainability-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/graduate-sustainability-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-sustainability-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/homeland-security-grad-cert/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/homeland-security-grad-cert/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/homeland-security-grad-cert/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/homeland-security-grad-cert/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/program-evaluation-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/program-evaluation-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/program-evaluation-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/program-evaluation-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/sustainable-food/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/sustainable-food/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/sustainable-food/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/sustainable-food/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/technical-communication-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/technical-communication-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/technical-communication-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/technical-communication-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/certificates/undergraduate-certificate-homeland-security/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-homeland-security/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/certificates/undergraduate-certificate-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-homeland-security/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/applied-science-nutrition/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-science-nutrition/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/applied-science-nutrition/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-science-nutrition/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a nutrition and entrepreneurship degree?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 86---84
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/applied-leadership-bas/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-leadership-bas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/applied-leadership-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-leadership-bas/
+MisMatch :
+For tag &lt;p&gt; count mismatch 118---115
+For tag &lt;a&gt; count mismatch 174---169
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 76---74
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/art-digital-photography-bfa/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-digital-photography-bfa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/art-digital-photography-bfa/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-digital-photography-bfa/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---94
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/art-museum-studies-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-museum-studies-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/art-museum-studies-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-museum-studies-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a museum studies degree?
+false  || Admission requirements&lt;---&gt;Apply for your online art degree in museum studies
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 101---100
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/astronomy-bachelors/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/astronomy-bachelors/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/astronomy-bachelors/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/astronomy-bachelors/
+MisMatch :
+false  || Related careers&lt;---&gt;Astronomy bachelor’s degree jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/
+MisMatch :
+For tag &lt;p&gt; count mismatch 118---115
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 78---76
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/
+MisMatch :
+For tag &lt;p&gt; count mismatch 118---115
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---78
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/
+MisMatch :
+For tag &lt;p&gt; count mismatch 112---109
+For tag &lt;a&gt; count mismatch 176---171
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---78
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-anthropology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-anthropology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-anthropology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-anthropology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-art-history/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-art-history/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-art-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-art-history/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---94
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-tourism/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-tourism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-business-tourism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-tourism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/
+MisMatch :
+false  || Related careers&lt;---&gt;Jobs for educational studies degree holders
+false  || Admission requirements&lt;---&gt;Apply for the ASU teachers college
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-english/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-english/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-english/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-english/
+MisMatch :
+false  || Related careers&lt;---&gt;What can I do with an English degree?
+false  || Admission requirements&lt;---&gt;Apply to earn your degree in English
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-geography/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-geography/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-geography/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-geography/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-global-health/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-health/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-global-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-global-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-global-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 96---95
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-history/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-history/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-history/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/
+MisMatch :
+false  || Details&lt;---&gt;Why earn a mass communication degree?
+false  || Study at our prestigious journalism school&lt;---&gt;Study at our award-winning journalism school
+false  || 1,000&lt;---&gt;1,260
+false  || The Bachelor of Arts in Mass Communication and Media Studies at Arizona State University's Walter Cronkite School of Journalism and Mass Communication, one of the nation’s premier journalism schools, explores global mass communication issues from all dimensions: societal, cultural, historical, political, economic, technological and legal.&lt;---&gt;The Bachelor of Arts in Mass Communication and Media Studies at Arizona State University's Walter Cronkite School of Journalism and Mass Communication, one of the nation’s premier journalism schools, explores global mass communication issues from all dimensions: societal, cultural, historical, political, economic, ethical, technological and legal.
+false  || A sophisticated understanding of mass communication is a critical asset for careers in business, government, community and the non-profit sectors. As a student in the Mass Communication and Media Studies program, you will examine a variety of media and communication subjects including History of Mass Communication, Social Media, and Political Communication.&lt;---&gt;A sophisticated understanding of mass communication and how it influences our lives is a critical asset for careers in media, business, government, community and non-profit sector. As a student in the mass communication and media studies degree program, you’ll examine a variety of media and communication subjects, such as the history of mass communication, social media and political communication. Exploratory and flexible, the program is anchored by a single required course (Media and Society). Students pursue their academic path by following their interests in media topics.
+false  || With courses taught by the Cronkite School’s top-tier faculty, including Pulitzer Prize winning journalist Steven Doig, media literacy advocate and researcher Dr. Mary-Lou Galician and new media pioneer Dan Gillmor, this program is designed to give you a deep and nuanced understanding of the growing importance, power, influence and changing nature of media in the world. Program courses include: Media Issues in American Pop Culture, Race, Gender, and Media, and Visual Communication.&lt;---&gt;With courses taught by the Cronkite School’s top-tier faculty, including Pulitzer Prize winning journalist Steven Doig, strategic communications researcher Dr. Dawn Gilpin and new media pioneer Dan Gillmor, this program is designed to give you a deep and nuanced understanding of the growing importance, power, influence and changing nature of media in the world. Program courses include Media Issues in American Pop Culture; Race, Gender and Media; and Visual Communication.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+false  || media partnerships (beyond internships).&lt;---&gt;media partnerships.
+For tag &lt;a&gt; count mismatch 172---167
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Sacramento Bee executive editor Rick Rodriguez. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer Prize-winning reporter Steve Doig. Associate Professor Sharon Bramlett-Solomon, distinguished scholar in media and culture. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive. Associate Professor Dawn Gilpin, strategic communications scholar and practitioner.
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Sacramento Bee executive editor Rick Rodriguez. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer Prize-winning reporter Steve Doig. Associate Professor Sharon Bramlett-Solomon, distinguished scholar in media and culture. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive. Associate Professor Dawn Gilpin, strategic communications scholar and practitioner.
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---96
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-philosophy/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-philosophy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-philosophy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-philosophy/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-political-science/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-political-science/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-political-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-political-science/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-psychology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-spanish/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-spanish/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-spanish/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-spanish/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-sustainability/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-sustainability/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-sustainability/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || Coolest Schools by Sier ra Club for campus sustainability.&lt;---&gt;Coolest Schools by Sierra Club for campus sustainability.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 85---84
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 113---112
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 113---112
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-international-public-health/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-international-public-health/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-international-public-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-international-public-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 91---90
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-liberal-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-liberal-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-liberal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-liberal-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-biochemistry/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-biochemistry/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-biochemistry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-biochemistry/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 178---173
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-communication/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-communication/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-communication/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-community-health/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-community-health/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-community-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-community-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-geography/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-geography/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-geography/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-geography/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 111---110
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 177---172
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 91---90
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-information-technology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-information-technology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-information-technology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-information-technology/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with an information technology degree?
+false  || Admission requirements&lt;---&gt;Apply to the ASU Online information technology program
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 98---97
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-integrative-health/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-integrative-health/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-integrative-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-integrative-health/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 170---165
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 88---87
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-justice-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-justice-studies/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-justice-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-justice-studies/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 94---93
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-marketing/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-marketing/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-marketing/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-marketing/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-political-science/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-political-science/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-political-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-political-science/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-psychology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-software-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-software-engineering/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-software-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-software-engineering/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-sociology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sociology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-sociology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sociology/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a sociology degree?
+false  || Admission requirements&lt;---&gt;Apply to earn your degree in sociology
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-technical-communication/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technical-communication/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-technical-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technical-communication/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-sustainability/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sustainability/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sustainability/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 84---83
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-urban-planning/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-urban-planning/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/bachelor-science-urban-planning/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-urban-planning/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/biochemistry-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biochemistry-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biochemistry-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biochemistry-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a biochemistry Bachelor of Arts degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 179---174
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 97---96
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a biomedical science degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 178---173
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/business-law-major/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/business-law-major/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/business-law-major/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/business-law-major/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/computer-information-systems-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/computer-information-systems-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/computer-information-systems-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/computer-information-systems-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/biological-sciences-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biological-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/digital-audiences-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/digital-audiences-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/digital-audiences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/digital-audiences-bs/
+MisMatch :
+false  || Details&lt;---&gt;What is digital audiences?
+false  || 1000&lt;---&gt;1,260
+false  || The online Bachelor of Science in Digital Audiences gives students the skills they need to use digital and social media to deepen impact in any industry, including strategy development, digital analytics, SEO and SEM campaigns, paid and organic social campaigns, audience research and more.&lt;---&gt;The online Bachelor of Science in digital audiences gives students the skills they need to use digital and social media to deepen impact in any industry. You’ll learn how to harness strategy development, digital analytics, SEO and SEM campaigns, paid and organic social campaigns and audience research to grow and engage audiences in meaningful, measurable ways.
+false  || Companies and organizations around the world have a critical and growing need to connect with audiences on digital and social media to increase impact in everything from sales to community cohesion. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who understand how to reach large online audiences in order to increase sales, advertising, donations, political support and community impact.&lt;---&gt;Corporations, advocacy groups, entrepreneurs, government agencies, communications firms, community groups, news organizations and nonprofits all need professionals who understand how to cultivate online audiences to increase sales, advertising, donations, political support and community impact.
+false  || The expertise required to leverage online audiences is different from traditional training in public relations. It requires training in social science research, real-time data analysis, digital audience behavior, multimedia content creation, ethics, law, entrepreneurship, project management, writing and public speaking. The online BS in Digital Audiences blends these disciplines in a data-driven, hands-on curriculum.&lt;---&gt;The expertise required to grow and leverage online audiences differs from traditional training in public relations. It requires training in social science research, real-time data analysis, digital audience behavior, multimedia content creation, ethics, law, entrepreneurship, project management, writing and public speaking. The online BS in digital audiences blends these disciplines in a data-driven, hands-on curriculum.
+false  || Through required coursework, students learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. Using those measurement skills, students learn how to grow audiences through applying search engine optimization, search engine marketing, paid and organic social media campaigns and audience research in digital content creation. In the program’s capstone experience, students work with real-world clients to create audience-first content and develop, test and execute audience growth strategies in real time.&lt;---&gt;Through required coursework, you’ll learn to measure and analyze how consumers interact with content online, on social media and on mobile devices. Using those measurement skills, students learn how to grow audiences through applying search engine optimization (SEO), search engine marketing (SEM), paid and organic social media campaigns, and audience research in digital content creation. In the program’s capstone experience, you’ll work with real-world clients to create audience-first content and develop, test and execute audience growth strategies in real time.
+false  || The Cronkite School attracts award-winning professional journalists and world-class media scholars from the country:&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication attracts award-winning professional journalists and world-class media scholars from across the country.
+false  || The Cronkite School attracts award-winning professional journalists and world-class media scholars from the country:&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication attracts award-winning professional journalists and world-class media scholars from across the country.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+For tag &lt;a&gt; count mismatch 172---167
+false  || Former Washington Post Executive Editor Leonard Downie Jr. Former BET Vice President Retha Hill Digital media leader Dan Gillmor Former Sacramento Bee Executive Editor Rick Rodriguez Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel Pulitzer-Prize winning reporter Steve Doig Former Knight Foundation journalism innovator Eric Newton&lt;---&gt;Former Washington Post executive editor Leonard Downie, Jr. Former BET Vice President Retha Hill. Digital media leader Dan Gillmor. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || Former Washington Post Executive Editor Leonard Downie Jr. Former BET Vice President Retha Hill Digital media leader Dan Gillmor Former Sacramento Bee Executive Editor Rick Rodriguez Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel Pulitzer-Prize winning reporter Steve Doig Former Knight Foundation journalism innovator Eric Newton&lt;---&gt;Former Washington Post executive editor Leonard Downie, Jr. Former BET Vice President Retha Hill. Digital media leader Dan Gillmor. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 95---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/early-childhood-applied-science/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/early-childhood-applied-science/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/early-childhood-applied-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/early-childhood-applied-science/
+MisMatch :
+false  || Related careers&lt;---&gt;What can I do with an early childhood studies degree?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 176---171
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 68---66
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/
+MisMatch :
+false  || Related careers&lt;---&gt;Related Careers
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/economics-bs-wpc/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-wpc/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/economics-bs-wpc/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-wpc/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 177---172
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/engineering-engineering-management-bse/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/engineering-engineering-management-bse/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/engineering-engineering-management-bse/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/engineering-engineering-management-bse/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/geographic-information-science-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/geographic-information-science-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/geographic-information-science-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/geographic-information-science-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/food-and-nutrition-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/food-and-nutrition-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/food-and-nutrition-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/food-and-nutrition-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;Use your food and nutrition degrees to create a startup and lead the industry
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 98---97
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/global-management-bgm/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/global-management-bgm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/global-management-bgm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/global-management-bgm/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 172---167
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/graphic-information-technology-bas/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-information-technology-bas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/graphic-information-technology-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-information-technology-bas/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a bachelor’s degree of graphic information technology?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 176---171
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 80---78
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/health-innovation-bas/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-innovation-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bas/
+MisMatch :
+For tag &lt;p&gt; count mismatch 117---114
+For tag &lt;a&gt; count mismatch 174---169
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 76---74
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/health-innovation-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-innovation-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/health-sciences-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-sciences-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/health-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-sciences-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;What kind of career can I get with a health sciences degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 99---98
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/information-security-business-degree/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/information-security-business-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/information-security-business-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/information-security-business-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/inquiry-based-learning-degree/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/inquiry-based-learning-degree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/inquiry-based-learning-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/inquiry-based-learning-degree/
+MisMatch :
+false  || Related careers&lt;---&gt;What jobs can I get with this leadership degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 93---92
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What jobs can I get with an interdisciplinary arts degree?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/international-trade-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/international-trade-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/international-trade-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/international-trade-bs/
+MisMatch :
+false  || Related careers&lt;---&gt;International trade jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 81---80
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/medicinal-chemistry/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/medicinal-chemistry/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/medicinal-chemistry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/medicinal-chemistry/
+MisMatch :
+false  || Related careers&lt;---&gt;Medicinal chemistry jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 178---173
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 97---96
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 175---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/physics-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/physics-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/physics-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/physics-ba/
+MisMatch :
+false  || Related careers&lt;---&gt;What can you do with a BA in physics?
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/project-management-transfer-degree/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/project-management-transfer-degree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/project-management-transfer-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/project-management-transfer-degree/
+MisMatch :
+false  || Related careers&lt;---&gt;What jobs can I get with a project management degree?
+For tag &lt;p&gt; count mismatch 122---119
+For tag &lt;a&gt; count mismatch 175---170
+false  || $50: Arizona residents. $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 76---74
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 174---169
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/sports-business-degree/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sports-business-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/sports-business-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sports-business-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/speech-and-hearing-science-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/speech-and-hearing-science-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/speech-and-hearing-science-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/speech-and-hearing-science-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 180---170
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 91---90
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/supply-chain-management-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/supply-chain-management-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/supply-chain-management-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/supply-chain-management-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/sustainable-food-systems/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sustainable-food-systems/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/sustainable-food-systems/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sustainable-food-systems/
+MisMatch :
+false  || Related careers&lt;---&gt;Food sustainability jobs
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 88---87
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/technical-communication-user-experience-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/technical-communication-user-experience-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/technical-communication-user-experience-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/technical-communication-user-experience-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 176---171
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 89---88
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/
+MisMatch :
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+false  || You can still earn your way into this program through the Earned Admission Pathway. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.&lt;---&gt;You can still gain admission to ASU through Earned Admission. Through this pathway, you can demonstrate your ability to succeed at ASU by completing online courses with a 2.75 GPA or higher.
+For tag &lt;a&gt; count mismatch 173---168
+false  || $70: U.S. citizen, U.S. permanent resident, in-application for permanent residency, DACA or international online student studying outside the U.S. $115: International students on any non-immigrant visa type studying in the U.S. (e.g. F-1, H1-B, H-4, etc.).&lt;---&gt;$70: ASU Online programs.
+For tag &lt;li&gt; count mismatch 87---86
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/aging-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/aging-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/aging-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/aging-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/communication-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/communication-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/communication-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/communication-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/computer-science-mcs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/computer-science-mcs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/computer-science-mcs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/computer-science-mcs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/conflict-resolution-emphases-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/conflict-resolution-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/conflict-resolution-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/conflict-resolution-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/construction-law-emphases-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/construction-law-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/construction-law-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/construction-law-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/contract-management-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/contract-management-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/contract-management-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/contract-management-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/criminal-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/criminal-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/criminal-law-emphasis-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/criminal-law-emphasis-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/digital-audience-strategy-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/digital-audience-strategy-ms/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/digital-audience-strategy-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/digital-audience-strategy-ms/
+MisMatch :
+false  || Details&lt;---&gt;Learn digital audience strategy
+false  || 1,000&lt;---&gt;1,260
+false  || The online Master of Science in Digital Audience Strategy prepares students to design and execute large-scale digital audience strategy through a data-driven, multidisciplinary, hands-on curriculum. Students learn to measure and analyze how consumers interact with content online, on social media and on mobile devices.&lt;---&gt;The online Master of Science in digital audience strategy prepares you to design and execute large-scale digital audience growth and engagement strategies through a data-driven, multidisciplinary, hands-on curriculum. You’ll learn to measure and analyze how consumers interact with content online, on social media and on mobile devices.
+false  || Students in the online MS in Digital Audience Strategy learn strategies and tactics to grow audiences through audience-first digital content that leverages search engine optimization, search engine marketing, audience research, and paid and organic social media campaigns. Students work with real-world clients to analyze content performance, and develop, test and execute audience growth strategies in real time.&lt;---&gt;Students in the online MS in digital audience strategy learn strategies and tactics to grow audiences through audience-first digital content that leverages search engine optimization (SEO), search engine marketing (SEM), audience research, and paid and organic social media campaigns. You’ll work with real-world clients to analyze content performance and develop, test and execute audience growth strategies in real time.
+false  || Through required coursework in ethics, media law and entrepreneurship, students learn to make ethical business decisions regarding consumer privacy, digital data security and community engagement. Through elective courses, students develop additional expertise in areas such as management and intellectual property. Students graduate from the program ready to drive innovation and business development in the digital age.&lt;---&gt;Through required coursework in ethics, media law and entrepreneurship, you’ll learn to make ethical business decisions regarding consumer privacy, digital data security and community engagement. Through elective courses, you’ll develop additional expertise in areas such as data science, leadership and management, and intellectual property. Students graduate from the program ready to drive digital innovation and business development.
+false  || Organizations in both the public and private sectors have a critical and growing need to connect with audiences on digital and social media. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who understand how to reach large online audiences with content in order to increase sales, advertising, donations, political support and community cohesion. The expertise required to leverage online audiences includes training in multimedia content creation, social science research, real-time data analysis, digital audience behavior, ethics, law, entrepreneurship, leadership, project management, writing and public speaking&lt;---&gt;Organizations in both the public and private sectors have a critical and growing need to connect with audiences on digital and social media. Corporations, advocacy groups, entrepreneurs, government agencies, community groups, news organizations and nonprofits all need professionals who understand how to cultivate large online audiences with content in order to increase sales, advertising, donations, political support and community cohesion. The expertise required to leverage online audiences includes training in multimedia content creation, social science research, real-time data analysis, digital audience behavior, ethics, law, entrepreneurship, leadership, project management, writing and public speaking.
+false  || The Cronkite School's online Master of Science in Digital Audience Strategy blends all of these disciplines to prepare students to be leaders in digital audience growth and innovation.&lt;---&gt;The Cronkite School's online Master of Science in digital audience strategy blends all of these disciplines to prepare students to be leaders in digital audience growth and innovation.
+false  || The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For over 15 years, we have earned the best record in the Society of Professional Journalists' national "Mark of Excellence" competition. We reign first in the nation for record-breaking Hearst Journalism Awards and have the best record of any journalism school for the international Robert F. Kennedy Journalism Award for reporting on social justice issues.&lt;---&gt;The Walter Cronkite School of Journalism and Mass Communication is a leading journalism school in the U.S. For more than 15 years, its students have won more awards in the Society of Professional Journalists national “Mark of Excellence” competition than any other university. Student reporting projects on social justice issues have won five Robert F. Kennedy Journalism Awards – the most of any journalism school in the country. The Cronkite School regularly ranks in the top five journalism schools in the country for broadcasting, photojournalism and strategic communications awards.
+For tag &lt;a&gt; count mismatch 162---160
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+false  || Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Knight Foundation journalism innovator Eric Newton. Former Sacramento Bee executive editor Rick Rodriguez. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig.&lt;---&gt;Digital media leader Dan Gillmor. Former BET vice president Retha Hill. Former Washington Post executive editor Leonard Downie, Jr. Pulitzer Prize-winning investigative reporter and editor Jacquee Petchel. Pulitzer-Prize winning reporter Steve Doig. Sue Clark-Johnson Professor in Media Innovation and Leadership Mi-Ai Parrish, media executive.
+For tag &lt;li&gt; count mismatch 84---82
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/doctor-behavioral-health-clinical/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-clinical/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/doctor-behavioral-health-clinical/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-clinical/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/cybersecurity-mcs/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-mcs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/cybersecurity-mcs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-mcs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/doctor-behavioral-health-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/doctor-behavioral-health-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/edd-leadership-and-innovation/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/edd-leadership-and-innovation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/edd-leadership-and-innovation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/edd-leadership-and-innovation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/education-educating-multilingual-learners-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/education-educating-multilingual-learners-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/education-educating-multilingual-learners-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/education-educating-multilingual-learners-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/executive-master-public-administration/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/executive-master-public-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/executive-master-public-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/executive-master-public-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/executive-sustainability-leadership/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/executive-sustainability-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/executive-sustainability-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/executive-sustainability-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/forensic-science-psm/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/forensic-science-psm/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/forensic-science-psm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/forensic-science-psm/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/global-education-med/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/global-education-med/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/global-education-med/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/global-education-med/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/global-security-cybersecurity-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/global-security-cybersecurity-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/global-security-cybersecurity-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/global-security-cybersecurity-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/hr-employment-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/hr-employment-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/hr-employment-law-emphasis-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/hr-employment-law-emphasis-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/information-technology-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/information-technology-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/information-technology-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/information-technology-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/indigenous-education-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/indigenous-education-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/indigenous-education-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/indigenous-education-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/graphic-information-technology-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/graphic-information-technology-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/graphic-information-technology-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/graphic-information-technology-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/literacy-education/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/literacy-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/literacy-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/literacy-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/international-health-management-mihm/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/international-health-management-mihm/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/international-health-management-mihm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/international-health-management-mihm/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/law-sustainability-emphases-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/law-sustainability-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/law-sustainability-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/law-sustainability-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-advanced-study-health-informatics/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-health-informatics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-advanced-study-health-informatics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-health-informatics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-applied-leadership-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-applied-leadership-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-applied-leadership-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-applied-leadership-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-community-resilience/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-community-resilience/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-community-resilience/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-community-resilience/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-criminal-justice/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-criminal-justice/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-criminal-justice/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-criminal-justice/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-emergency-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-emergency-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-english/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-english/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-english/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-english/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-global-security/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-global-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-global-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-global-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-history/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-history/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-history/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-homeland-security/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-homeland-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-homeland-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-sociology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-sociology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-sociology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-sociology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-big-data/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-big-data/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-big-data/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-big-data/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-business-administration/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-business-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-education-educational-leadership-principalship/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-educational-leadership-principalship/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-education-educational-leadership-principalship/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-educational-leadership-principalship/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-education-learning-design-technologies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-learning-design-technologies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-education-learning-design-technologies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-learning-design-technologies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-engineering-area-study-engineering-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-engineering-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-engineering-area-study-engineering-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-engineering-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-healthcare-innovation/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-healthcare-innovation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-healthcare-innovation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-healthcare-innovation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-legal-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-legal-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-legal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-legal-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-liberal-studies/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-liberal-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-liberal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-liberal-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-public-safety-leadership-and-administration/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-public-safety-leadership-and-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-public-safety-leadership-and-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-public-safety-leadership-and-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-biomedical-diagnostics/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-biomedical-diagnostics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-biomedical-diagnostics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-biomedical-diagnostics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-biomimicry/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-biomimicry/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-biomimicry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-biomimicry/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-business-analytics/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-business-analytics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-business-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-business-analytics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-business-journalism/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-business-journalism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-business-journalism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-business-journalism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-clinical-research-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-clinical-research-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-construction-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-construction-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-construction-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-construction-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-engineering-electrical-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-electrical-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-engineering-electrical-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-electrical-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-forensic-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-family-and-human-development/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-family-and-human-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-family-and-human-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-family-and-human-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-global-technology-development/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-global-technology-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-global-technology-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-global-technology-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-industrial-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-industrial-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-industrial-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-industrial-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-materials-science-and-engineering/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-materials-science-and-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-materials-science-and-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-materials-science-and-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-nutritional-science-dietetics/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-nutritional-science-dietetics/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-nutritional-science-dietetics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-nutritional-science-dietetics/
+MisMatch :
+false  || Related careers&lt;---&gt;What can I do with a dietetics degree?
+false  || The Master of Science in nutritional science (dietetics) program is designed for registered dietitians seeking an advanced dietetics degree. This curriculum emphasizes the scientific foundations of nutrition and reinforces abilities such as project management, interpreting research and critical inquiry.&lt;---&gt;The Master of Science in nutritional science – dietetics program is designed for registered dietitians seeking an advanced dietetics degree. This curriculum emphasizes the scientific foundations of nutrition and reinforces abilities such as project management, interpreting research and critical inquiry.
+false  || The ASU Online Master of Science in nutritional science (dietetics) program is designed for RDNs with at least one year of experience in the field. It provides an opportunity to pursue advanced education and develop professional competencies in dietetics, leading to a variety of positive outcomes for individuals and communities.&lt;---&gt;The ASU Online Master of Science in nutritional science (dietetics) program is designed for RDNs. It provides an opportunity to pursue advanced education and develop professional competencies in dietetics, leading to a variety of positive outcomes for individuals and communities.
+false  || While students are required to have one year of professional experience as a registered dietitian to qualify for admission to this master’s in dietetics program, you do not need to be employed when applying or while earning your degree. Additionally, the program can be completed on a full- or part-time basis.&lt;---&gt;While you must be a registered dietitian to qualify for admission to this master’s in dietetics program, you do not need to be employed when applying or while earning your degree. Additionally, the program can be completed on a full- or part-time basis.
+For tag &lt;a&gt; count mismatch 161---160
+false  || Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree, current RD credential, and one year of full-time work experience as an RD. GPA: A minimum of a 3.00 cumulative GPA (scale is 4.00 = "A") or better is required in the last two years of work leading to a bachelor's degree. Licensure: To verify professional standing, applicants must submit proof of Registered Dietitian status by accessing the Commission on Dietetic Registration's website using the Online Credential Verification Search. Examinations: Because passing the RD exam and gaining work experience in the field of dietetics are required for successful admission to the Master of Science in nutritional science (dietetics) program, the Nutrition Program Graduate Committee does not require applicants to take or submit scores from the Graduate Record Examination (GRE). Letters of Recommendation: Three letters of recommendation, including at least one from an employer or work supervisor. Written Statement: A one- to two-page, typed, double-spaced, personal statement addressing the following: significant professional responsibilities the applicant has held; professional goals and reasons for desiring to enroll in this program; strengths that will help the applicant succeed in this program and in reaching their professional goals; and personal interests in research, including, if applicable, studies involving the practice of dietetics.&lt;---&gt;Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree and current RDN credential. GPA: A minimum of a 3.00 cumulative GPA (scale is 4.00 = "A") or better is required in the last two years of work leading to a bachelor's degree. Licensure: To verify professional standing, applicants must submit proof of Registered Dietitian status by accessing the Commission on Dietetic Registration's website using the Online Credential Verification Search. Examinations: Because passing the RD exam and gaining work experience in the field of dietetics are required for successful admission to the Master of Science in nutritional science (dietetics) program, the Nutrition Program Graduate Committee does not require applicants to take or submit scores from the Graduate Record Examination (GRE). Letters of Recommendation: Two letters of recommendation, including at least one from an employer or work supervisor. Written Statement: A one- to two-page, typed, double-spaced, personal statement addressing the following: significant professional responsibilities the applicant has held; professional goals and reasons for desiring to enroll in this program; strengths that will help the applicant succeed in this program and in reaching their professional goals; and personal interests in research, including, if applicable, studies involving the practice of dietetics.
+false  || Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree, current RD credential, and one year of full-time work experience as an RD.&lt;---&gt;Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree and current RDN credential.
+false  || Letters of Recommendation: Three letters of recommendation, including at least one from an employer or work supervisor.&lt;---&gt;Letters of Recommendation: Two letters of recommendation, including at least one from an employer or work supervisor.
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-psychology/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-science-health-care-delivery/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-science-health-care-delivery/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-science-health-care-delivery/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-science-health-care-delivery/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-science-technical-communication/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-technical-communication/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-science-technical-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-technical-communication/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-social-work-social-work/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-social-work-social-work/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-social-work-social-work/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-social-work-social-work/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-food-science/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-food-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-food-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-food-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-in-education/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-in-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-in-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-in-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-nursing-education/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-nursing-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-nursing-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-nursing-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-nursing/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-nursing/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-nursing/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-nursing/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/masters-sustainable-food-systems/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-sustainable-food-systems/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/masters-sustainable-food-systems/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-sustainable-food-systems/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/medical-nutrition-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/medical-nutrition-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/medical-nutrition-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/medical-nutrition-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/political-psychology-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/political-psychology-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/political-psychology-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/political-psychology-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/organizational-leadership-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/organizational-leadership-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/organizational-leadership-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/organizational-leadership-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/public-interest-technology-masters/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/public-interest-technology-masters/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/public-interest-technology-masters/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/public-interest-technology-masters/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/social-justice-and-human-rights-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/social-justice-and-human-rights-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/social-justice-and-human-rights-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/social-justice-and-human-rights-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/regulatory-science-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/regulatory-science-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/regulatory-science-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/regulatory-science-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/sports-law-and-business-emphases-mls/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/sports-law-and-business-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/sports-law-and-business-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/sports-law-and-business-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/supply-chain-management-ms/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/supply-chain-management-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/supply-chain-management-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/supply-chain-management-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/graduate/world-war-ii-studies-ma/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/graduate/world-war-ii-studies-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/graduate/world-war-ii-studies-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/world-war-ii-studies-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/
+MisMatch :
+false  || Select a degree type Graduate Undergraduate Certificates No results found. List is empty.&lt;---&gt;Select a degree type Undergraduate Graduate Certificates No results found. List is empty.
+false  || Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Construction Management and Technology (MS) Contract Management (MLS) Corporate and Health Care Compliance (MLS) Corrections Management (Graduate Certificate) Criminal Justice (MA) Criminal Law (MLS) Criminal Sentencing and Sentencing Advocacy (Graduate Certificate) Criminology and Criminal Justice (BS) Curriculum and Instruction: Early Childhood Education (MEd) Curriculum and Instruction: Gifted Education (MEd) Cybersecurity (MCS) Cybersecurity Policy and Management (MA) Digital Audience Strategy (Graduate Certificate) Digital Audience Strategy (MS) Digital Audiences (BS) Early Childhood Studies (BAS) Economics (BS) - Business Economics (BS) - Liberal Arts Education (Educating Multilingual Learners) (MA) Education (MA) Education - Literacy Education (MA) Educational Leadership (Principalship) (MEd) Educational Studies (BAE) Educational Studies - Early Childhood Education (BAE) Electrical Engineering (BSE) Electrical Engineering (MSE) Electrical Engineering - Electric Power and Energy Systems (BSE) Emergency Management (MA) Emergency Management and Homeland Security (EMHS) Engineering Management (BSE) Engineering Science in Software Engineering (MSE) Engineering: Engineering Management (MEng) Engineering: Quality, Reliability and Statistical Engineering (MEng) Engineering: Systems Engineering (MEng) English (BA) English (MA) English as a Second Language (Graduate Certificate) Executive Fire Administration (MA) Executive Master of Public Administration (EMPA) Family &amp; Human Development (BS) Family &amp; Human Development (MS) Film and Media Studies (BA) Film and Media Studies (MAS) Food Policy and Sustainability Leadership (Graduate Certificate) Food Safety and Protection (Graduate Certificate) Food and Nutrition Entrepreneurship (BAS) Food and Nutrition Entrepreneurship BS Forensic Psychology (MS) Forensic Science (PSM) Geographic Information Science (BS) Geographic Information Science (Undergraduate Certificate) Geography (BA) Geography (BS) Gifted Education (Graduate Certificate) Global Development and Innovation (Graduate Certificate) Global Education (MEd) Global Health (BA) Global Management (BGM) Global Security (MA) Global Security - Cybersecurity (MA) Global Studies (BA) Global Technology &amp; Development (Applied International Development) (MS) Global Technology and Development (MS) Graphic Information Technology (BAS) Graphic Information Technology (BS) Graphic Information Technology (MS) HR and Employment Law (MLS) Health Care Compliance and Regulations (BS) Health Care Coordination (BS) Health Care Innovation (Graduate Certificate) Health Education and Health Promotion (BS) Health Entrepreneurship and Innovation (BAS) Health Entrepreneurship and Innovation (BS) Health Informatics (MAS) Health Sciences (BAS) Health Sciences (BS) Healthcare Innovation (MHI) Healthy Lifestyles Coaching (Health Sciences) (BS) History (BA) History (MA) Homeland Security (Graduate Certificate) Homeland Security (MA) Homeland Security (Undergraduate Certificate) Indigenous Education (MA) Industrial Engineering (MS) Information Technology (BS) Information Technology (MS) Integrated Behavioral Health - Clinical (Graduate Certificate) Integrated Behavioral Health - Management (Graduate Certificate) Integrative Health (BS) Intellectual Property Law (MLS) Interdisciplinary Arts and Performance (BA) Interdisciplinary Studies (BA) Interdisciplinary Studies - Organizational Studies (BA) International Health Management (MIHM) International Public Health (BIPH) International Trade (BS) Internet &amp; Web Development (Applied Science BAS) Justice Studies (BS) Law Enforcement Administration (Graduate Certificate) Law and Sustainability (MLS) Leadership and Innovation (EdD) Leadership and Management (MALM) - Thunderbird Lean Six Sigma Black Belt (Graduate Certificate) Learning Design and Technologies (MEd) Legal Studies (MLS) Liberal Studies (BA) Liberal Studies (MLSt) MBA - Master of Business Administration MBA/MS - Industrial Engineering MBA/MSE - Electrical Engineering Management (BS) Marketing (BS) Mass Communication and Media Studies (BA) Materials Science and Engineering (MS) Mathematical Concepts of Engineering (Undergraduate Certificate) Medical Nutrition (MS) Nonprofit Leadership and Management (Graduate Certificate) Nonprofit Leadership and Management (MNLM) Nuclear Power Generation (Graduate Certificate) Nurse Education in Academic and Practice Settings (Graduate Certificate) Nursing (MS) Nursing - Nursing Education (MS) Nursing - RN to BSN Nutritional Science (Dietetics) (MS) Operations Management (Applied Science BAS) Organizational Leadership (BA) Organizational Leadership (MS) Organizational Leadership - Project Management (BA) Philosophy (BA) Philosophy (Morality, Politics and Law) (BA) Physics (BA) Political Psychology (MA) Political Science (BA) Political Science (BS) Program Evaluation (Graduate Certificate) Program Evaluation and Data Analytics (MS) Project Management (BAS) Psychology (BA) Psychology (BS) Psychology (MS) Psychology - Forensic Psychology (BA) Psychology - Forensic Psychology (BS) Public Interest Technology (MS) Public Safety Leadership and Administration (MPSLA) Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA) Public Safety Leadership and Administration – Executive Police Administration (MPSLA) Public Service and Public Policy (BS) Public Service and Public Policy - Emergency Management Homeland Security (BS) RN to BSN – Concurrent Enrollment (BSN) Regulatory Science (MS) Regulatory Science – Food Safety (MS) Religious Studies - Religion, Culture and Public Life (BA) Science of Health Care Delivery (Graduate Certificate) Science of Health Care Delivery (MS) Social Entrepreneurship and Community Development (Graduate Certificate) Social Justice and Human Rights (MA) Social Work (MSW) Sociology (BS) Sociology (MA) Software Engineering (BS) Spanish (BA) Special Education (Applied Behavior Analysis) (MA) Special Education - Autism Spectrum Disorders (MA) Speech and Hearing Science (BS) Sports Law and Business (MLS) Supply Chain Management (BS) Supply Chain Management (MS) Sustainability (BA) Sustainability (BS) Sustainability (Graduate Certificate) Sustainability Leadership (EMSL) Sustainability Leadership (MSL) Sustainable Engineering (MSE) Sustainable Food Systems (BS) Sustainable Food Systems (MS) Sustainable Tourism (Graduate Certificate) Sustainable Tourism (MST) Teaching English to Speakers of Other Languages (MTESOL) Technical Communication (BS) Technical Communication (Graduate Certificate) Technical Communication (MS) Technical Communication - User Experience (BS) Technological Entrepreneurship and Management (BS) Technological Leadership (BS) Tourism and Recreation Management (BS) Urban Planning (BSP) Women and Gender Studies (BA) World War II Studies (MA) No results found. List is empty.&lt;---&gt;Addiction and Substance-Use Related Disorders (Graduate Certificate) Advanced Analytics in Higher Education (Graduate Certificate) Aging (MS) An Overview of Autism Spectrum Disorders (Graduate Certificate) Anthropology (BA) Applied Behavior Analysis (Graduate Certificate) Applied Business Data Analytics (Undergraduate Certificate) Applied Leadership (BAS) Applied Prevention Science (Graduate Certificate) Art (Digital Photography) (BFA) Art - Museum Studies (BA) Art History (BA) Astronomical and Planetary Sciences (BS) Behavioral Health (Clinical) (DBH) Behavioral Health (Management) (DBH) Biochemistry (BA) Biochemistry (BS) Biochemistry - Medicinal Chemistry (BS) Biological Sciences (BS) Biological Sciences - Biomedical Sciences (BS) Biological Sciences – Biology and Society (BS) Biological Sciences – Conservation Biology and Ecology (BS) Biomedical Diagnostics (MS) Biomimicry (Graduate Certificate) Biomimicry (MS) Biosecurity and Threat Management (MA) Business - Business Administration (BA) Business - Communication (BA) Business - Corporate Accounting (BA) Business - Food Industry Management (BA) Business - Global Leadership (BA) Business - Global Logistics Management (BA) Business - Retail Management (BA) Business - Sports Business (BA) Business - Sustainability (BA) Business - Tourism (BA) Business Analytics (MS) Business Data Analytics (BS) Business Journalism (MS) Business – Financial Planning (BA) Business – Information Security (BA) Business – Law (BA) Clinical Research Management (Graduate Certificate) Clinical Research Management (MS) Clinical Research Management - Regulatory Science (MS) Communication (BS) Communication (MA) Community Advocacy and Social Policy (BA) Community Health (BS) Community Resilience (MA) Computer Information Systems (BS) Computer Science (MCS) Computer Science - Big Data Systems (MCS) Conflict Resolution (MLS) Construction Law (MLS) Construction Management and Technology (MS) Contract Management (MLS) Corporate and Health Care Compliance (MLS) Corrections Management (Graduate Certificate) Criminal Justice (MA) Criminal Law (MLS) Criminal Sentencing and Sentencing Advocacy (Graduate Certificate) Criminology and Criminal Justice (BS) Curriculum and Instruction: Early Childhood Education (MEd) Curriculum and Instruction: Gifted Education (MEd) Cybersecurity (MCS) Cybersecurity Policy and Management (MA) Digital Audience Strategy (Graduate Certificate) Digital Audience Strategy (MS) Digital Audiences (BS) Early Childhood Studies (BAS) Economics (BS) - Business Economics (BS) - Liberal Arts Education (Educating Multilingual Learners) (MA) Education (MA) Education - Literacy Education (MA) Educational Leadership (Principalship) (MEd) Educational Studies (BAE) Educational Studies - Early Childhood Education (BAE) Electrical Engineering (BSE) Electrical Engineering (MSE) Electrical Engineering - Electric Power and Energy Systems (BSE) Emergency Management (MA) Emergency Management and Homeland Security (EMHS) Engineering Management (BSE) Engineering Science in Software Engineering (MSE) Engineering: Engineering Management (MEng) Engineering: Quality, Reliability and Statistical Engineering (MEng) Engineering: Systems Engineering (MEng) English (BA) English (MA) English as a Second Language (Graduate Certificate) Executive Fire Administration (MA) Executive Master of Public Administration (EMPA) Family &amp; Human Development (BS) Family &amp; Human Development (MS) Film and Media Studies (BA) Film and Media Studies (MAS) Food Policy and Sustainability Leadership (Graduate Certificate) Food Safety and Protection (Graduate Certificate) Food and Nutrition Entrepreneurship (BAS) Food and Nutrition Entrepreneurship BS Forensic Psychology (MS) Forensic Science (PSM) Geographic Information Science (BS) Geographic Information Science (Undergraduate Certificate) Geography (BA) Geography (BS) Gifted Education (Graduate Certificate) Global Development and Innovation (Graduate Certificate) Global Education (MEd) Global Health (BA) Global Management (BGM) Global Security (MA) Global Security - Cybersecurity (MA) Global Studies (BA) Global Technology &amp; Development (Applied International Development) (MS) Global Technology and Development (MS) Graphic Design (BSD) Graphic Information Technology (BAS) Graphic Information Technology (BS) Graphic Information Technology (MS) HR and Employment Law (MLS) Health Care Compliance and Regulations (BS) Health Care Coordination (BS) Health Care Innovation (Graduate Certificate) Health Education and Health Promotion (BS) Health Entrepreneurship and Innovation (BAS) Health Entrepreneurship and Innovation (BS) Health Informatics (MAS) Health Sciences (BAS) Health Sciences (BS) Healthcare Innovation (MHI) Healthy Lifestyles Coaching (Health Sciences) (BS) History (BA) History (MA) Homeland Security (Graduate Certificate) Homeland Security (MA) Homeland Security (Undergraduate Certificate) Indigenous Education (MA) Industrial Engineering (MS) Information Technology (BS) Information Technology (MS) Integrated Behavioral Health - Clinical (Graduate Certificate) Integrated Behavioral Health - Management (Graduate Certificate) Integrative Health (BS) Intellectual Property Law (MLS) Interdisciplinary Arts and Performance (BA) Interdisciplinary Studies (BA) Interdisciplinary Studies - Organizational Studies (BA) International Health Management (MIHM) International Public Health (BIPH) International Trade (BS) Internet &amp; Web Development (Applied Science BAS) Justice Studies (BS) Law Enforcement Administration (Graduate Certificate) Law and Sustainability (MLS) Leadership and Innovation (EdD) Leadership and Management (MALM) - Thunderbird Lean Six Sigma Black Belt (Graduate Certificate) Learning Design and Technologies (MEd) Legal Studies (MLS) Liberal Studies (BA) Liberal Studies (MLSt) MBA - Master of Business Administration MBA/MS - Industrial Engineering MBA/MSE - Electrical Engineering Management (BS) Marketing (BS) Mass Communication and Media Studies (BA) Materials Science and Engineering (MS) Mathematical Concepts of Engineering (Undergraduate Certificate) Medical Nutrition (MS) Nonprofit Leadership and Management (Graduate Certificate) Nonprofit Leadership and Management (MNLM) Nuclear Power Generation (Graduate Certificate) Nurse Education in Academic and Practice Settings (Graduate Certificate) Nursing (MS) Nursing - Nursing Education (MS) Nursing - RN to BSN Nutritional Science (Dietetics) (MS) Operations Management (Applied Science BAS) Organizational Leadership (BA) Organizational Leadership (MS) Organizational Leadership - Project Management (BA) Philosophy (BA) Philosophy (Morality, Politics and Law) (BA) Physics (BA) Political Psychology (MA) Political Science (BA) Political Science (BS) Program Evaluation (Graduate Certificate) Program Evaluation and Data Analytics (MS) Project Management (BAS) Psychology (BA) Psychology (BS) Psychology (MS) Psychology - Forensic Psychology (BA) Psychology - Forensic Psychology (BS) Public Interest Technology (MS) Public Safety Leadership and Administration (MPSLA) Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA) Public Safety Leadership and Administration – Executive Police Administration (MPSLA) Public Service and Public Policy (BS) Public Service and Public Policy - Emergency Management Homeland Security (BS) RN to BSN – Concurrent Enrollment (BSN) Regulatory Science (MS) Regulatory Science – Food Safety (MS) Religious Studies - Religion, Culture and Public Life (BA) Science of Health Care Delivery (Graduate Certificate) Science of Health Care Delivery (MS) Social Entrepreneurship and Community Development (Graduate Certificate) Social Justice and Human Rights (MA) Social Work (MSW) Sociology (BS) Sociology (MA) Software Engineering (BS) Spanish (BA) Special Education (Applied Behavior Analysis) (MA) Special Education - Autism Spectrum Disorders (MA) Speech and Hearing Science (BS) Sports Law and Business (MLS) Supply Chain Management (BS) Supply Chain Management (MS) Sustainability (BA) Sustainability (BS) Sustainability (Graduate Certificate) Sustainability Leadership (EMSL) Sustainability Leadership (MSL) Sustainable Engineering (MSE) Sustainable Food Systems (BS) Sustainable Food Systems (MS) Sustainable Tourism (Graduate Certificate) Sustainable Tourism (MST) Teaching English to Speakers of Other Languages (MTESOL) Technical Communication (BS) Technical Communication (Graduate Certificate) Technical Communication (MS) Technical Communication - User Experience (BS) Technological Entrepreneurship and Management (BS) Technological Leadership (BS) Tourism and Recreation Management (BS) Urban Planning (BSP) Women and Gender Studies (BA) World War II Studies (MA) No results found. List is empty.
+For tag &lt;li&gt; count mismatch 322---326
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/admission/non-degree/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/admission/non-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/admission/non-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/non-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/what-it-costs/financial-aid/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/what-it-costs/financial-aid/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/financial-aid/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/financial-aid/
+No MisMatch
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -421,8 +4588,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="116.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="116.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -439,6 +4606,3886 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>832</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>834</v>
+      </c>
+      <c r="B10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>305</v>
+      </c>
+      <c r="B103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>374</v>
+      </c>
+      <c r="B126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>380</v>
+      </c>
+      <c r="B128" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>383</v>
+      </c>
+      <c r="B129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>386</v>
+      </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>395</v>
+      </c>
+      <c r="B133" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>398</v>
+      </c>
+      <c r="B134" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>407</v>
+      </c>
+      <c r="B137" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>410</v>
+      </c>
+      <c r="B138" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>413</v>
+      </c>
+      <c r="B139" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>416</v>
+      </c>
+      <c r="B140" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>419</v>
+      </c>
+      <c r="B141" t="s">
+        <v>420</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>422</v>
+      </c>
+      <c r="B142" t="s">
+        <v>423</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>425</v>
+      </c>
+      <c r="B143" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>431</v>
+      </c>
+      <c r="B145" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>434</v>
+      </c>
+      <c r="B146" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>437</v>
+      </c>
+      <c r="B147" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>440</v>
+      </c>
+      <c r="B148" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>446</v>
+      </c>
+      <c r="B150" t="s">
+        <v>447</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" t="s">
+        <v>450</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" t="s">
+        <v>453</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>455</v>
+      </c>
+      <c r="B153" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>458</v>
+      </c>
+      <c r="B154" t="s">
+        <v>459</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>464</v>
+      </c>
+      <c r="B156" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>476</v>
+      </c>
+      <c r="B160" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" t="s">
+        <v>480</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" t="s">
+        <v>486</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>494</v>
+      </c>
+      <c r="B166" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>509</v>
+      </c>
+      <c r="B171" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>512</v>
+      </c>
+      <c r="B172" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>515</v>
+      </c>
+      <c r="B173" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>518</v>
+      </c>
+      <c r="B174" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" t="s">
+        <v>522</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>524</v>
+      </c>
+      <c r="B176" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" t="s">
+        <v>528</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>530</v>
+      </c>
+      <c r="B178" t="s">
+        <v>531</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>536</v>
+      </c>
+      <c r="B180" t="s">
+        <v>537</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>539</v>
+      </c>
+      <c r="B181" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" t="s">
+        <v>543</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" t="s">
+        <v>546</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>548</v>
+      </c>
+      <c r="B184" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>554</v>
+      </c>
+      <c r="B186" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>557</v>
+      </c>
+      <c r="B187" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>560</v>
+      </c>
+      <c r="B188" t="s">
+        <v>561</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>563</v>
+      </c>
+      <c r="B189" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>566</v>
+      </c>
+      <c r="B190" t="s">
+        <v>567</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>569</v>
+      </c>
+      <c r="B191" t="s">
+        <v>570</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>572</v>
+      </c>
+      <c r="B192" t="s">
+        <v>573</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>575</v>
+      </c>
+      <c r="B193" t="s">
+        <v>576</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>578</v>
+      </c>
+      <c r="B194" t="s">
+        <v>579</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>581</v>
+      </c>
+      <c r="B195" t="s">
+        <v>582</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>584</v>
+      </c>
+      <c r="B196" t="s">
+        <v>585</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>587</v>
+      </c>
+      <c r="B197" t="s">
+        <v>588</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>590</v>
+      </c>
+      <c r="B198" t="s">
+        <v>591</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>593</v>
+      </c>
+      <c r="B199" t="s">
+        <v>594</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" t="s">
+        <v>597</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>599</v>
+      </c>
+      <c r="B201" t="s">
+        <v>600</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" t="s">
+        <v>603</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>605</v>
+      </c>
+      <c r="B203" t="s">
+        <v>606</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>608</v>
+      </c>
+      <c r="B204" t="s">
+        <v>609</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>614</v>
+      </c>
+      <c r="B206" t="s">
+        <v>615</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>617</v>
+      </c>
+      <c r="B207" t="s">
+        <v>618</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>620</v>
+      </c>
+      <c r="B208" t="s">
+        <v>621</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" t="s">
+        <v>624</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>626</v>
+      </c>
+      <c r="B210" t="s">
+        <v>627</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" t="s">
+        <v>630</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>632</v>
+      </c>
+      <c r="B212" t="s">
+        <v>633</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>635</v>
+      </c>
+      <c r="B213" t="s">
+        <v>636</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>638</v>
+      </c>
+      <c r="B214" t="s">
+        <v>639</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>641</v>
+      </c>
+      <c r="B215" t="s">
+        <v>642</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>644</v>
+      </c>
+      <c r="B216" t="s">
+        <v>645</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>647</v>
+      </c>
+      <c r="B217" t="s">
+        <v>648</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>650</v>
+      </c>
+      <c r="B218" t="s">
+        <v>651</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>653</v>
+      </c>
+      <c r="B219" t="s">
+        <v>654</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>656</v>
+      </c>
+      <c r="B220" t="s">
+        <v>657</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>659</v>
+      </c>
+      <c r="B221" t="s">
+        <v>660</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>662</v>
+      </c>
+      <c r="B222" t="s">
+        <v>663</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>665</v>
+      </c>
+      <c r="B223" t="s">
+        <v>666</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>668</v>
+      </c>
+      <c r="B224" t="s">
+        <v>669</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" t="s">
+        <v>672</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>674</v>
+      </c>
+      <c r="B226" t="s">
+        <v>675</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>677</v>
+      </c>
+      <c r="B227" t="s">
+        <v>678</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>680</v>
+      </c>
+      <c r="B228" t="s">
+        <v>681</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>683</v>
+      </c>
+      <c r="B229" t="s">
+        <v>684</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>686</v>
+      </c>
+      <c r="B230" t="s">
+        <v>687</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>689</v>
+      </c>
+      <c r="B231" t="s">
+        <v>690</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>692</v>
+      </c>
+      <c r="B232" t="s">
+        <v>693</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>695</v>
+      </c>
+      <c r="B233" t="s">
+        <v>696</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>698</v>
+      </c>
+      <c r="B234" t="s">
+        <v>699</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>701</v>
+      </c>
+      <c r="B235" t="s">
+        <v>702</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>704</v>
+      </c>
+      <c r="B236" t="s">
+        <v>705</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>707</v>
+      </c>
+      <c r="B237" t="s">
+        <v>708</v>
+      </c>
+      <c r="C237" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>710</v>
+      </c>
+      <c r="B238" t="s">
+        <v>711</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>713</v>
+      </c>
+      <c r="B239" t="s">
+        <v>714</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>716</v>
+      </c>
+      <c r="B240" t="s">
+        <v>717</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>719</v>
+      </c>
+      <c r="B241" t="s">
+        <v>720</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>722</v>
+      </c>
+      <c r="B242" t="s">
+        <v>723</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>725</v>
+      </c>
+      <c r="B243" t="s">
+        <v>726</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>728</v>
+      </c>
+      <c r="B244" t="s">
+        <v>729</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>731</v>
+      </c>
+      <c r="B245" t="s">
+        <v>732</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>734</v>
+      </c>
+      <c r="B246" t="s">
+        <v>735</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>737</v>
+      </c>
+      <c r="B247" t="s">
+        <v>738</v>
+      </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>740</v>
+      </c>
+      <c r="B248" t="s">
+        <v>741</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>743</v>
+      </c>
+      <c r="B249" t="s">
+        <v>744</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>746</v>
+      </c>
+      <c r="B250" t="s">
+        <v>747</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>749</v>
+      </c>
+      <c r="B251" t="s">
+        <v>750</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>752</v>
+      </c>
+      <c r="B252" t="s">
+        <v>753</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>755</v>
+      </c>
+      <c r="B253" t="s">
+        <v>756</v>
+      </c>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>758</v>
+      </c>
+      <c r="B254" t="s">
+        <v>759</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>761</v>
+      </c>
+      <c r="B255" t="s">
+        <v>762</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>764</v>
+      </c>
+      <c r="B256" t="s">
+        <v>765</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>767</v>
+      </c>
+      <c r="B257" t="s">
+        <v>768</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>770</v>
+      </c>
+      <c r="B258" t="s">
+        <v>771</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>773</v>
+      </c>
+      <c r="B259" t="s">
+        <v>774</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>776</v>
+      </c>
+      <c r="B260" t="s">
+        <v>777</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>779</v>
+      </c>
+      <c r="B261" t="s">
+        <v>780</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>782</v>
+      </c>
+      <c r="B262" t="s">
+        <v>783</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>785</v>
+      </c>
+      <c r="B263" t="s">
+        <v>786</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>788</v>
+      </c>
+      <c r="B264" t="s">
+        <v>789</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>791</v>
+      </c>
+      <c r="B265" t="s">
+        <v>792</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>794</v>
+      </c>
+      <c r="B266" t="s">
+        <v>795</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>797</v>
+      </c>
+      <c r="B267" t="s">
+        <v>798</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>800</v>
+      </c>
+      <c r="B268" t="s">
+        <v>801</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>803</v>
+      </c>
+      <c r="B269" t="s">
+        <v>804</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>806</v>
+      </c>
+      <c r="B270" t="s">
+        <v>807</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>809</v>
+      </c>
+      <c r="B271" t="s">
+        <v>810</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>812</v>
+      </c>
+      <c r="B272" t="s">
+        <v>813</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>815</v>
+      </c>
+      <c r="B273" t="s">
+        <v>816</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>818</v>
+      </c>
+      <c r="B274" t="s">
+        <v>819</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>821</v>
+      </c>
+      <c r="B275" t="s">
+        <v>822</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>824</v>
+      </c>
+      <c r="B276" t="s">
+        <v>825</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>827</v>
+      </c>
+      <c r="B277" t="s">
+        <v>828</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+      <c r="D277" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>830</v>
+      </c>
+      <c r="B278" t="s">
+        <v>831</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>833</v>
+      </c>
+      <c r="B279" t="s">
+        <v>834</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" t="s">
+        <v>835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6857" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10075" uniqueCount="967">
   <si>
     <t>Result</t>
   </si>
@@ -4976,6 +4976,114 @@
 false  || Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree, current RD credential, and one year of full-time work experience as an RD. GPA: A minimum of a 3.00 cumulative GPA (scale is 4.00 = "A") or better is required in the last two years of work leading to a bachelor's degree. Licensure: To verify professional standing, applicants must submit proof of Registered Dietitian status by accessing the Commission on Dietetic Registration's website using the Online Credential Verification Search. Examinations: Because passing the RD exam and gaining work experience in the field of dietetics are required for successful admission to the Master of Science in nutritional science (dietetics) program, the Nutrition Program Graduate Committee does not require applicants to take or submit scores from the Graduate Record Examination (GRE). Letters of Recommendation: Three letters of recommendation, including at least one from an employer or work supervisor. Written Statement: A one- to two-page, typed, double-spaced, personal statement addressing the following: significant professional responsibilities the applicant has held; professional goals and reasons for desiring to enroll in this program; strengths that will help the applicant succeed in this program and in reaching their professional goals; and personal interests in research, including, if applicable, studies involving the practice of dietetics.&lt;---&gt;Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree and current RDN credential. GPA: A minimum of a 3.00 cumulative GPA (scale is 4.00 = "A") or better is required in the last two years of work leading to a bachelor's degree. Licensure: To verify professional standing, applicants must submit proof of Registered Dietitian status by accessing the Commission on Dietetic Registration's website using the Online Credential Verification Search. Examinations: Because passing the RD exam and gaining work experience in the field of dietetics are required for successful admission to the Master of Science in nutritional science (dietetics) program, the Nutrition Program Graduate Committee does not require applicants to take or submit scores from the Graduate Record Examination (GRE). Letters of Recommendation: Two letters of recommendation, including at least one from an employer or work supervisor. Written Statement: A one- to two-page, typed, double-spaced, personal statement addressing the following: significant professional responsibilities the applicant has held; professional goals and reasons for desiring to enroll in this program; strengths that will help the applicant succeed in this program and in reaching their professional goals; and personal interests in research, including, if applicable, studies involving the practice of dietetics.
 false  || Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree, current RD credential, and one year of full-time work experience as an RD.&lt;---&gt;Degree and Credentials: Applicants are required to have adequate academic preparation which includes a minimum of a BS or BA degree and current RDN credential.
 false  || Letters of Recommendation: Three letters of recommendation, including at least one from an employer or work supervisor.&lt;---&gt;Letters of Recommendation: Two letters of recommendation, including at least one from an employer or work supervisor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/
+MisMatch :
+false  || Select a degree type Graduate Undergraduate Certificates No results found. List is empty.&lt;---&gt;Select a degree type Undergraduate Graduate Certificates No results found. List is empty.
+false  || Graduate&lt;---&gt;Undergraduate
+false  || Undergraduate&lt;---&gt;Graduate
+</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/biology-and-society/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biology-and-society/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/biology-and-society/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biology-and-society/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/conservation-biology-degree/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/conservation-biology-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/conservation-biology-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/conservation-biology-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/financial-planning-business/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/financial-planning-business/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/financial-planning-business/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/financial-planning-business/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuords.edpl.us/online-degree-programs/undergraduate/graphic-design-major/</t>
+  </si>
+  <si>
+    <t>https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-design-major/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/undergraduate/graphic-design-major/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-design-major/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https:///chat-with-asu/
+EnvironmentB   :https:///chat-with-asu/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https:///preview/
+EnvironmentB   :https:///preview/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https:///military-scholarship/
+EnvironmentB   :https:///military-scholarship/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https:///study/
+EnvironmentB   :https:///study/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https:///admission/non-degree/
+EnvironmentB   :https:///admission/non-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuords.edpl.us/what-it-costs/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/
+MisMatch :
+false  || Select a degree type Graduate Undergraduate Certificates No results found. List is empty.&lt;---&gt;Select a degree type Undergraduate Certificates Graduate No results found. List is empty.
+false  || Graduate&lt;---&gt;Undergraduate
+false  || Undergraduate&lt;---&gt;Certificates
+false  || Certificates&lt;---&gt;Graduate
 </t>
   </si>
 </sst>
@@ -5468,7 +5576,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>848</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9">
@@ -5485,3786 +5593,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>190</v>
-      </c>
-      <c r="B61" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>196</v>
-      </c>
-      <c r="B63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>214</v>
-      </c>
-      <c r="B69" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>220</v>
-      </c>
-      <c r="B71" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>223</v>
-      </c>
-      <c r="B72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>226</v>
-      </c>
-      <c r="B73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>229</v>
-      </c>
-      <c r="B74" t="s">
-        <v>230</v>
-      </c>
-      <c r="C74" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>235</v>
-      </c>
-      <c r="B76" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>238</v>
-      </c>
-      <c r="B77" t="s">
-        <v>239</v>
-      </c>
-      <c r="C77" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>241</v>
-      </c>
-      <c r="B78" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>244</v>
-      </c>
-      <c r="B79" t="s">
-        <v>245</v>
-      </c>
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>247</v>
-      </c>
-      <c r="B80" t="s">
-        <v>248</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>250</v>
-      </c>
-      <c r="B81" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>259</v>
-      </c>
-      <c r="B84" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>262</v>
-      </c>
-      <c r="B85" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>265</v>
-      </c>
-      <c r="B86" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>268</v>
-      </c>
-      <c r="B87" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>271</v>
-      </c>
-      <c r="B88" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>280</v>
-      </c>
-      <c r="B91" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>283</v>
-      </c>
-      <c r="B92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>286</v>
-      </c>
-      <c r="B93" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>292</v>
-      </c>
-      <c r="B95" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>295</v>
-      </c>
-      <c r="B96" t="s">
-        <v>296</v>
-      </c>
-      <c r="C96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>298</v>
-      </c>
-      <c r="B97" t="s">
-        <v>299</v>
-      </c>
-      <c r="C97" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>301</v>
-      </c>
-      <c r="B98" t="s">
-        <v>302</v>
-      </c>
-      <c r="C98" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>304</v>
-      </c>
-      <c r="B99" t="s">
-        <v>305</v>
-      </c>
-      <c r="C99" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>307</v>
-      </c>
-      <c r="B100" t="s">
-        <v>308</v>
-      </c>
-      <c r="C100" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>310</v>
-      </c>
-      <c r="B101" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>313</v>
-      </c>
-      <c r="B102" t="s">
-        <v>314</v>
-      </c>
-      <c r="C102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>316</v>
-      </c>
-      <c r="B103" t="s">
-        <v>317</v>
-      </c>
-      <c r="C103" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>319</v>
-      </c>
-      <c r="B104" t="s">
-        <v>320</v>
-      </c>
-      <c r="C104" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>322</v>
-      </c>
-      <c r="B105" t="s">
-        <v>323</v>
-      </c>
-      <c r="C105" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>325</v>
-      </c>
-      <c r="B106" t="s">
-        <v>326</v>
-      </c>
-      <c r="C106" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-      <c r="B107" t="s">
-        <v>329</v>
-      </c>
-      <c r="C107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>331</v>
-      </c>
-      <c r="B108" t="s">
-        <v>332</v>
-      </c>
-      <c r="C108" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>334</v>
-      </c>
-      <c r="B109" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>337</v>
-      </c>
-      <c r="B110" t="s">
-        <v>338</v>
-      </c>
-      <c r="C110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>340</v>
-      </c>
-      <c r="B111" t="s">
-        <v>341</v>
-      </c>
-      <c r="C111" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>343</v>
-      </c>
-      <c r="B112" t="s">
-        <v>344</v>
-      </c>
-      <c r="C112" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>346</v>
-      </c>
-      <c r="B113" t="s">
-        <v>347</v>
-      </c>
-      <c r="C113" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>349</v>
-      </c>
-      <c r="B114" t="s">
-        <v>350</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>352</v>
-      </c>
-      <c r="B115" t="s">
-        <v>353</v>
-      </c>
-      <c r="C115" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>355</v>
-      </c>
-      <c r="B116" t="s">
-        <v>356</v>
-      </c>
-      <c r="C116" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>358</v>
-      </c>
-      <c r="B117" t="s">
-        <v>359</v>
-      </c>
-      <c r="C117" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>361</v>
-      </c>
-      <c r="B118" t="s">
-        <v>362</v>
-      </c>
-      <c r="C118" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>364</v>
-      </c>
-      <c r="B119" t="s">
-        <v>365</v>
-      </c>
-      <c r="C119" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>367</v>
-      </c>
-      <c r="B120" t="s">
-        <v>368</v>
-      </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>370</v>
-      </c>
-      <c r="B121" t="s">
-        <v>371</v>
-      </c>
-      <c r="C121" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>373</v>
-      </c>
-      <c r="B122" t="s">
-        <v>374</v>
-      </c>
-      <c r="C122" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>376</v>
-      </c>
-      <c r="B123" t="s">
-        <v>377</v>
-      </c>
-      <c r="C123" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>379</v>
-      </c>
-      <c r="B124" t="s">
-        <v>380</v>
-      </c>
-      <c r="C124" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>382</v>
-      </c>
-      <c r="B125" t="s">
-        <v>383</v>
-      </c>
-      <c r="C125" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>385</v>
-      </c>
-      <c r="B126" t="s">
-        <v>386</v>
-      </c>
-      <c r="C126" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>388</v>
-      </c>
-      <c r="B127" t="s">
-        <v>389</v>
-      </c>
-      <c r="C127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>391</v>
-      </c>
-      <c r="B128" t="s">
-        <v>392</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>394</v>
-      </c>
-      <c r="B129" t="s">
-        <v>395</v>
-      </c>
-      <c r="C129" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>397</v>
-      </c>
-      <c r="B130" t="s">
-        <v>398</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>400</v>
-      </c>
-      <c r="B131" t="s">
-        <v>401</v>
-      </c>
-      <c r="C131" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>403</v>
-      </c>
-      <c r="B132" t="s">
-        <v>404</v>
-      </c>
-      <c r="C132" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>406</v>
-      </c>
-      <c r="B133" t="s">
-        <v>407</v>
-      </c>
-      <c r="C133" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>409</v>
-      </c>
-      <c r="B134" t="s">
-        <v>410</v>
-      </c>
-      <c r="C134" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>412</v>
-      </c>
-      <c r="B135" t="s">
-        <v>413</v>
-      </c>
-      <c r="C135" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>415</v>
-      </c>
-      <c r="B136" t="s">
-        <v>416</v>
-      </c>
-      <c r="C136" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>418</v>
-      </c>
-      <c r="B137" t="s">
-        <v>419</v>
-      </c>
-      <c r="C137" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>421</v>
-      </c>
-      <c r="B138" t="s">
-        <v>422</v>
-      </c>
-      <c r="C138" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>424</v>
-      </c>
-      <c r="B139" t="s">
-        <v>425</v>
-      </c>
-      <c r="C139" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>427</v>
-      </c>
-      <c r="B140" t="s">
-        <v>428</v>
-      </c>
-      <c r="C140" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>430</v>
-      </c>
-      <c r="B141" t="s">
-        <v>431</v>
-      </c>
-      <c r="C141" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>433</v>
-      </c>
-      <c r="B142" t="s">
-        <v>434</v>
-      </c>
-      <c r="C142" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>436</v>
-      </c>
-      <c r="B143" t="s">
-        <v>437</v>
-      </c>
-      <c r="C143" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>439</v>
-      </c>
-      <c r="B144" t="s">
-        <v>440</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>442</v>
-      </c>
-      <c r="B145" t="s">
-        <v>443</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>445</v>
-      </c>
-      <c r="B146" t="s">
-        <v>446</v>
-      </c>
-      <c r="C146" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>448</v>
-      </c>
-      <c r="B147" t="s">
-        <v>449</v>
-      </c>
-      <c r="C147" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>451</v>
-      </c>
-      <c r="B148" t="s">
-        <v>452</v>
-      </c>
-      <c r="C148" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>454</v>
-      </c>
-      <c r="B149" t="s">
-        <v>455</v>
-      </c>
-      <c r="C149" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>457</v>
-      </c>
-      <c r="B150" t="s">
-        <v>458</v>
-      </c>
-      <c r="C150" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>460</v>
-      </c>
-      <c r="B151" t="s">
-        <v>461</v>
-      </c>
-      <c r="C151" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>463</v>
-      </c>
-      <c r="B152" t="s">
-        <v>464</v>
-      </c>
-      <c r="C152" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>466</v>
-      </c>
-      <c r="B153" t="s">
-        <v>467</v>
-      </c>
-      <c r="C153" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>469</v>
-      </c>
-      <c r="B154" t="s">
-        <v>470</v>
-      </c>
-      <c r="C154" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>472</v>
-      </c>
-      <c r="B155" t="s">
-        <v>473</v>
-      </c>
-      <c r="C155" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>475</v>
-      </c>
-      <c r="B156" t="s">
-        <v>476</v>
-      </c>
-      <c r="C156" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>478</v>
-      </c>
-      <c r="B157" t="s">
-        <v>479</v>
-      </c>
-      <c r="C157" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>481</v>
-      </c>
-      <c r="B158" t="s">
-        <v>482</v>
-      </c>
-      <c r="C158" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>484</v>
-      </c>
-      <c r="B159" t="s">
-        <v>485</v>
-      </c>
-      <c r="C159" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>487</v>
-      </c>
-      <c r="B160" t="s">
-        <v>488</v>
-      </c>
-      <c r="C160" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>490</v>
-      </c>
-      <c r="B161" t="s">
-        <v>491</v>
-      </c>
-      <c r="C161" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>493</v>
-      </c>
-      <c r="B162" t="s">
-        <v>494</v>
-      </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>496</v>
-      </c>
-      <c r="B163" t="s">
-        <v>497</v>
-      </c>
-      <c r="C163" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>499</v>
-      </c>
-      <c r="B164" t="s">
-        <v>500</v>
-      </c>
-      <c r="C164" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>502</v>
-      </c>
-      <c r="B165" t="s">
-        <v>503</v>
-      </c>
-      <c r="C165" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>505</v>
-      </c>
-      <c r="B166" t="s">
-        <v>506</v>
-      </c>
-      <c r="C166" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>508</v>
-      </c>
-      <c r="B167" t="s">
-        <v>509</v>
-      </c>
-      <c r="C167" t="s">
-        <v>20</v>
-      </c>
-      <c r="D167" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>511</v>
-      </c>
-      <c r="B168" t="s">
-        <v>512</v>
-      </c>
-      <c r="C168" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>514</v>
-      </c>
-      <c r="B169" t="s">
-        <v>515</v>
-      </c>
-      <c r="C169" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>517</v>
-      </c>
-      <c r="B170" t="s">
-        <v>518</v>
-      </c>
-      <c r="C170" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>520</v>
-      </c>
-      <c r="B171" t="s">
-        <v>521</v>
-      </c>
-      <c r="C171" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>523</v>
-      </c>
-      <c r="B172" t="s">
-        <v>524</v>
-      </c>
-      <c r="C172" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>526</v>
-      </c>
-      <c r="B173" t="s">
-        <v>527</v>
-      </c>
-      <c r="C173" t="s">
-        <v>13</v>
-      </c>
-      <c r="D173" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>529</v>
-      </c>
-      <c r="B174" t="s">
-        <v>530</v>
-      </c>
-      <c r="C174" t="s">
-        <v>20</v>
-      </c>
-      <c r="D174" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>532</v>
-      </c>
-      <c r="B175" t="s">
-        <v>533</v>
-      </c>
-      <c r="C175" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>535</v>
-      </c>
-      <c r="B176" t="s">
-        <v>536</v>
-      </c>
-      <c r="C176" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>538</v>
-      </c>
-      <c r="B177" t="s">
-        <v>539</v>
-      </c>
-      <c r="C177" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>541</v>
-      </c>
-      <c r="B178" t="s">
-        <v>542</v>
-      </c>
-      <c r="C178" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>544</v>
-      </c>
-      <c r="B179" t="s">
-        <v>545</v>
-      </c>
-      <c r="C179" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>547</v>
-      </c>
-      <c r="B180" t="s">
-        <v>548</v>
-      </c>
-      <c r="C180" t="s">
-        <v>13</v>
-      </c>
-      <c r="D180" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>550</v>
-      </c>
-      <c r="B181" t="s">
-        <v>551</v>
-      </c>
-      <c r="C181" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>553</v>
-      </c>
-      <c r="B182" t="s">
-        <v>554</v>
-      </c>
-      <c r="C182" t="s">
-        <v>13</v>
-      </c>
-      <c r="D182" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>556</v>
-      </c>
-      <c r="B183" t="s">
-        <v>557</v>
-      </c>
-      <c r="C183" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>559</v>
-      </c>
-      <c r="B184" t="s">
-        <v>560</v>
-      </c>
-      <c r="C184" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>562</v>
-      </c>
-      <c r="B185" t="s">
-        <v>563</v>
-      </c>
-      <c r="C185" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>565</v>
-      </c>
-      <c r="B186" t="s">
-        <v>566</v>
-      </c>
-      <c r="C186" t="s">
-        <v>13</v>
-      </c>
-      <c r="D186" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>568</v>
-      </c>
-      <c r="B187" t="s">
-        <v>569</v>
-      </c>
-      <c r="C187" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>571</v>
-      </c>
-      <c r="B188" t="s">
-        <v>572</v>
-      </c>
-      <c r="C188" t="s">
-        <v>20</v>
-      </c>
-      <c r="D188" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>574</v>
-      </c>
-      <c r="B189" t="s">
-        <v>575</v>
-      </c>
-      <c r="C189" t="s">
-        <v>13</v>
-      </c>
-      <c r="D189" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>577</v>
-      </c>
-      <c r="B190" t="s">
-        <v>578</v>
-      </c>
-      <c r="C190" t="s">
-        <v>13</v>
-      </c>
-      <c r="D190" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>580</v>
-      </c>
-      <c r="B191" t="s">
-        <v>581</v>
-      </c>
-      <c r="C191" t="s">
-        <v>13</v>
-      </c>
-      <c r="D191" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>583</v>
-      </c>
-      <c r="B192" t="s">
-        <v>584</v>
-      </c>
-      <c r="C192" t="s">
-        <v>13</v>
-      </c>
-      <c r="D192" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>586</v>
-      </c>
-      <c r="B193" t="s">
-        <v>587</v>
-      </c>
-      <c r="C193" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>589</v>
-      </c>
-      <c r="B194" t="s">
-        <v>590</v>
-      </c>
-      <c r="C194" t="s">
-        <v>13</v>
-      </c>
-      <c r="D194" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>592</v>
-      </c>
-      <c r="B195" t="s">
-        <v>593</v>
-      </c>
-      <c r="C195" t="s">
-        <v>13</v>
-      </c>
-      <c r="D195" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>595</v>
-      </c>
-      <c r="B196" t="s">
-        <v>596</v>
-      </c>
-      <c r="C196" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>598</v>
-      </c>
-      <c r="B197" t="s">
-        <v>599</v>
-      </c>
-      <c r="C197" t="s">
-        <v>13</v>
-      </c>
-      <c r="D197" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>601</v>
-      </c>
-      <c r="B198" t="s">
-        <v>602</v>
-      </c>
-      <c r="C198" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>604</v>
-      </c>
-      <c r="B199" t="s">
-        <v>605</v>
-      </c>
-      <c r="C199" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>607</v>
-      </c>
-      <c r="B200" t="s">
-        <v>608</v>
-      </c>
-      <c r="C200" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>610</v>
-      </c>
-      <c r="B201" t="s">
-        <v>611</v>
-      </c>
-      <c r="C201" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>613</v>
-      </c>
-      <c r="B202" t="s">
-        <v>614</v>
-      </c>
-      <c r="C202" t="s">
-        <v>13</v>
-      </c>
-      <c r="D202" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>616</v>
-      </c>
-      <c r="B203" t="s">
-        <v>617</v>
-      </c>
-      <c r="C203" t="s">
-        <v>13</v>
-      </c>
-      <c r="D203" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>619</v>
-      </c>
-      <c r="B204" t="s">
-        <v>620</v>
-      </c>
-      <c r="C204" t="s">
-        <v>13</v>
-      </c>
-      <c r="D204" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>622</v>
-      </c>
-      <c r="B205" t="s">
-        <v>623</v>
-      </c>
-      <c r="C205" t="s">
-        <v>13</v>
-      </c>
-      <c r="D205" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>625</v>
-      </c>
-      <c r="B206" t="s">
-        <v>626</v>
-      </c>
-      <c r="C206" t="s">
-        <v>13</v>
-      </c>
-      <c r="D206" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>628</v>
-      </c>
-      <c r="B207" t="s">
-        <v>629</v>
-      </c>
-      <c r="C207" t="s">
-        <v>13</v>
-      </c>
-      <c r="D207" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>631</v>
-      </c>
-      <c r="B208" t="s">
-        <v>632</v>
-      </c>
-      <c r="C208" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>634</v>
-      </c>
-      <c r="B209" t="s">
-        <v>635</v>
-      </c>
-      <c r="C209" t="s">
-        <v>13</v>
-      </c>
-      <c r="D209" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>637</v>
-      </c>
-      <c r="B210" t="s">
-        <v>638</v>
-      </c>
-      <c r="C210" t="s">
-        <v>13</v>
-      </c>
-      <c r="D210" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>640</v>
-      </c>
-      <c r="B211" t="s">
-        <v>641</v>
-      </c>
-      <c r="C211" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>643</v>
-      </c>
-      <c r="B212" t="s">
-        <v>644</v>
-      </c>
-      <c r="C212" t="s">
-        <v>13</v>
-      </c>
-      <c r="D212" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>646</v>
-      </c>
-      <c r="B213" t="s">
-        <v>647</v>
-      </c>
-      <c r="C213" t="s">
-        <v>13</v>
-      </c>
-      <c r="D213" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>649</v>
-      </c>
-      <c r="B214" t="s">
-        <v>650</v>
-      </c>
-      <c r="C214" t="s">
-        <v>13</v>
-      </c>
-      <c r="D214" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>652</v>
-      </c>
-      <c r="B215" t="s">
-        <v>653</v>
-      </c>
-      <c r="C215" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>655</v>
-      </c>
-      <c r="B216" t="s">
-        <v>656</v>
-      </c>
-      <c r="C216" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>658</v>
-      </c>
-      <c r="B217" t="s">
-        <v>659</v>
-      </c>
-      <c r="C217" t="s">
-        <v>13</v>
-      </c>
-      <c r="D217" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>661</v>
-      </c>
-      <c r="B218" t="s">
-        <v>662</v>
-      </c>
-      <c r="C218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D218" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>664</v>
-      </c>
-      <c r="B219" t="s">
-        <v>665</v>
-      </c>
-      <c r="C219" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>667</v>
-      </c>
-      <c r="B220" t="s">
-        <v>668</v>
-      </c>
-      <c r="C220" t="s">
-        <v>13</v>
-      </c>
-      <c r="D220" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>670</v>
-      </c>
-      <c r="B221" t="s">
-        <v>671</v>
-      </c>
-      <c r="C221" t="s">
-        <v>13</v>
-      </c>
-      <c r="D221" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>673</v>
-      </c>
-      <c r="B222" t="s">
-        <v>674</v>
-      </c>
-      <c r="C222" t="s">
-        <v>13</v>
-      </c>
-      <c r="D222" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>676</v>
-      </c>
-      <c r="B223" t="s">
-        <v>677</v>
-      </c>
-      <c r="C223" t="s">
-        <v>13</v>
-      </c>
-      <c r="D223" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>679</v>
-      </c>
-      <c r="B224" t="s">
-        <v>680</v>
-      </c>
-      <c r="C224" t="s">
-        <v>13</v>
-      </c>
-      <c r="D224" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>682</v>
-      </c>
-      <c r="B225" t="s">
-        <v>683</v>
-      </c>
-      <c r="C225" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>685</v>
-      </c>
-      <c r="B226" t="s">
-        <v>686</v>
-      </c>
-      <c r="C226" t="s">
-        <v>13</v>
-      </c>
-      <c r="D226" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>688</v>
-      </c>
-      <c r="B227" t="s">
-        <v>689</v>
-      </c>
-      <c r="C227" t="s">
-        <v>13</v>
-      </c>
-      <c r="D227" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>691</v>
-      </c>
-      <c r="B228" t="s">
-        <v>692</v>
-      </c>
-      <c r="C228" t="s">
-        <v>13</v>
-      </c>
-      <c r="D228" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>694</v>
-      </c>
-      <c r="B229" t="s">
-        <v>695</v>
-      </c>
-      <c r="C229" t="s">
-        <v>13</v>
-      </c>
-      <c r="D229" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>697</v>
-      </c>
-      <c r="B230" t="s">
-        <v>698</v>
-      </c>
-      <c r="C230" t="s">
-        <v>13</v>
-      </c>
-      <c r="D230" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>700</v>
-      </c>
-      <c r="B231" t="s">
-        <v>701</v>
-      </c>
-      <c r="C231" t="s">
-        <v>13</v>
-      </c>
-      <c r="D231" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>703</v>
-      </c>
-      <c r="B232" t="s">
-        <v>704</v>
-      </c>
-      <c r="C232" t="s">
-        <v>13</v>
-      </c>
-      <c r="D232" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>706</v>
-      </c>
-      <c r="B233" t="s">
-        <v>707</v>
-      </c>
-      <c r="C233" t="s">
-        <v>13</v>
-      </c>
-      <c r="D233" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>709</v>
-      </c>
-      <c r="B234" t="s">
-        <v>710</v>
-      </c>
-      <c r="C234" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>712</v>
-      </c>
-      <c r="B235" t="s">
-        <v>713</v>
-      </c>
-      <c r="C235" t="s">
-        <v>13</v>
-      </c>
-      <c r="D235" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>715</v>
-      </c>
-      <c r="B236" t="s">
-        <v>716</v>
-      </c>
-      <c r="C236" t="s">
-        <v>13</v>
-      </c>
-      <c r="D236" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>718</v>
-      </c>
-      <c r="B237" t="s">
-        <v>719</v>
-      </c>
-      <c r="C237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D237" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>721</v>
-      </c>
-      <c r="B238" t="s">
-        <v>722</v>
-      </c>
-      <c r="C238" t="s">
-        <v>13</v>
-      </c>
-      <c r="D238" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>724</v>
-      </c>
-      <c r="B239" t="s">
-        <v>725</v>
-      </c>
-      <c r="C239" t="s">
-        <v>13</v>
-      </c>
-      <c r="D239" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>727</v>
-      </c>
-      <c r="B240" t="s">
-        <v>728</v>
-      </c>
-      <c r="C240" t="s">
-        <v>13</v>
-      </c>
-      <c r="D240" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>730</v>
-      </c>
-      <c r="B241" t="s">
-        <v>731</v>
-      </c>
-      <c r="C241" t="s">
-        <v>13</v>
-      </c>
-      <c r="D241" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>733</v>
-      </c>
-      <c r="B242" t="s">
-        <v>734</v>
-      </c>
-      <c r="C242" t="s">
-        <v>13</v>
-      </c>
-      <c r="D242" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>736</v>
-      </c>
-      <c r="B243" t="s">
-        <v>737</v>
-      </c>
-      <c r="C243" t="s">
-        <v>13</v>
-      </c>
-      <c r="D243" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>739</v>
-      </c>
-      <c r="B244" t="s">
-        <v>740</v>
-      </c>
-      <c r="C244" t="s">
-        <v>13</v>
-      </c>
-      <c r="D244" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>742</v>
-      </c>
-      <c r="B245" t="s">
-        <v>743</v>
-      </c>
-      <c r="C245" t="s">
-        <v>13</v>
-      </c>
-      <c r="D245" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>745</v>
-      </c>
-      <c r="B246" t="s">
-        <v>746</v>
-      </c>
-      <c r="C246" t="s">
-        <v>13</v>
-      </c>
-      <c r="D246" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>748</v>
-      </c>
-      <c r="B247" t="s">
-        <v>749</v>
-      </c>
-      <c r="C247" t="s">
-        <v>13</v>
-      </c>
-      <c r="D247" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>751</v>
-      </c>
-      <c r="B248" t="s">
-        <v>752</v>
-      </c>
-      <c r="C248" t="s">
-        <v>13</v>
-      </c>
-      <c r="D248" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>754</v>
-      </c>
-      <c r="B249" t="s">
-        <v>755</v>
-      </c>
-      <c r="C249" t="s">
-        <v>13</v>
-      </c>
-      <c r="D249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>757</v>
-      </c>
-      <c r="B250" t="s">
-        <v>758</v>
-      </c>
-      <c r="C250" t="s">
-        <v>13</v>
-      </c>
-      <c r="D250" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>760</v>
-      </c>
-      <c r="B251" t="s">
-        <v>761</v>
-      </c>
-      <c r="C251" t="s">
-        <v>13</v>
-      </c>
-      <c r="D251" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>763</v>
-      </c>
-      <c r="B252" t="s">
-        <v>764</v>
-      </c>
-      <c r="C252" t="s">
-        <v>13</v>
-      </c>
-      <c r="D252" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>766</v>
-      </c>
-      <c r="B253" t="s">
-        <v>767</v>
-      </c>
-      <c r="C253" t="s">
-        <v>20</v>
-      </c>
-      <c r="D253" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>769</v>
-      </c>
-      <c r="B254" t="s">
-        <v>770</v>
-      </c>
-      <c r="C254" t="s">
-        <v>13</v>
-      </c>
-      <c r="D254" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>772</v>
-      </c>
-      <c r="B255" t="s">
-        <v>773</v>
-      </c>
-      <c r="C255" t="s">
-        <v>13</v>
-      </c>
-      <c r="D255" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>775</v>
-      </c>
-      <c r="B256" t="s">
-        <v>776</v>
-      </c>
-      <c r="C256" t="s">
-        <v>13</v>
-      </c>
-      <c r="D256" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>778</v>
-      </c>
-      <c r="B257" t="s">
-        <v>779</v>
-      </c>
-      <c r="C257" t="s">
-        <v>13</v>
-      </c>
-      <c r="D257" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>781</v>
-      </c>
-      <c r="B258" t="s">
-        <v>782</v>
-      </c>
-      <c r="C258" t="s">
-        <v>13</v>
-      </c>
-      <c r="D258" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>784</v>
-      </c>
-      <c r="B259" t="s">
-        <v>785</v>
-      </c>
-      <c r="C259" t="s">
-        <v>13</v>
-      </c>
-      <c r="D259" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>787</v>
-      </c>
-      <c r="B260" t="s">
-        <v>788</v>
-      </c>
-      <c r="C260" t="s">
-        <v>13</v>
-      </c>
-      <c r="D260" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>790</v>
-      </c>
-      <c r="B261" t="s">
-        <v>791</v>
-      </c>
-      <c r="C261" t="s">
-        <v>13</v>
-      </c>
-      <c r="D261" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>793</v>
-      </c>
-      <c r="B262" t="s">
-        <v>794</v>
-      </c>
-      <c r="C262" t="s">
-        <v>13</v>
-      </c>
-      <c r="D262" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>796</v>
-      </c>
-      <c r="B263" t="s">
-        <v>797</v>
-      </c>
-      <c r="C263" t="s">
-        <v>13</v>
-      </c>
-      <c r="D263" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>799</v>
-      </c>
-      <c r="B264" t="s">
-        <v>800</v>
-      </c>
-      <c r="C264" t="s">
-        <v>13</v>
-      </c>
-      <c r="D264" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>802</v>
-      </c>
-      <c r="B265" t="s">
-        <v>803</v>
-      </c>
-      <c r="C265" t="s">
-        <v>13</v>
-      </c>
-      <c r="D265" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>805</v>
-      </c>
-      <c r="B266" t="s">
-        <v>806</v>
-      </c>
-      <c r="C266" t="s">
-        <v>13</v>
-      </c>
-      <c r="D266" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>808</v>
-      </c>
-      <c r="B267" t="s">
-        <v>809</v>
-      </c>
-      <c r="C267" t="s">
-        <v>13</v>
-      </c>
-      <c r="D267" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>811</v>
-      </c>
-      <c r="B268" t="s">
-        <v>812</v>
-      </c>
-      <c r="C268" t="s">
-        <v>13</v>
-      </c>
-      <c r="D268" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>814</v>
-      </c>
-      <c r="B269" t="s">
-        <v>815</v>
-      </c>
-      <c r="C269" t="s">
-        <v>13</v>
-      </c>
-      <c r="D269" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>817</v>
-      </c>
-      <c r="B270" t="s">
-        <v>818</v>
-      </c>
-      <c r="C270" t="s">
-        <v>13</v>
-      </c>
-      <c r="D270" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>820</v>
-      </c>
-      <c r="B271" t="s">
-        <v>821</v>
-      </c>
-      <c r="C271" t="s">
-        <v>13</v>
-      </c>
-      <c r="D271" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>823</v>
-      </c>
-      <c r="B272" t="s">
-        <v>824</v>
-      </c>
-      <c r="C272" t="s">
-        <v>13</v>
-      </c>
-      <c r="D272" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>826</v>
-      </c>
-      <c r="B273" t="s">
-        <v>827</v>
-      </c>
-      <c r="C273" t="s">
-        <v>13</v>
-      </c>
-      <c r="D273" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>829</v>
-      </c>
-      <c r="B274" t="s">
-        <v>830</v>
-      </c>
-      <c r="C274" t="s">
-        <v>13</v>
-      </c>
-      <c r="D274" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>832</v>
-      </c>
-      <c r="B275" t="s">
-        <v>833</v>
-      </c>
-      <c r="C275" t="s">
-        <v>13</v>
-      </c>
-      <c r="D275" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>835</v>
-      </c>
-      <c r="B276" t="s">
-        <v>836</v>
-      </c>
-      <c r="C276" t="s">
-        <v>13</v>
-      </c>
-      <c r="D276" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>838</v>
-      </c>
-      <c r="B277" t="s">
-        <v>839</v>
-      </c>
-      <c r="C277" t="s">
-        <v>13</v>
-      </c>
-      <c r="D277" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>841</v>
-      </c>
-      <c r="B278" t="s">
-        <v>842</v>
-      </c>
-      <c r="C278" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>844</v>
-      </c>
-      <c r="B279" t="s">
-        <v>845</v>
-      </c>
-      <c r="C279" t="s">
-        <v>13</v>
-      </c>
-      <c r="D279" t="s">
-        <v>846</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10075" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10103" uniqueCount="967">
   <si>
     <t>Result</t>
   </si>

--- a/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
+++ b/src/main/java/com/kmathpal/rest/Model/resturlCompare.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10103" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13467" uniqueCount="1528">
   <si>
     <t>Result</t>
   </si>
@@ -5085,6 +5085,2838 @@
 false  || Undergraduate&lt;---&gt;Certificates
 false  || Certificates&lt;---&gt;Graduate
 </t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuords.edpl.us/online-degree-programs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/
+MisMatch :
+false  || ASU Online&lt;---&gt;All Online Degree Programs
+false  || Work in Progress&lt;---&gt;All online degree programs
+For tag &lt;h3&gt; count mismatch 0---1
+tag list:
+envA : []
+envB : [Request Information]
+}For tag &lt;p&gt; count mismatch 0---8
+tag list:
+envA : []
+envB : [You can earn a degree online from ASU Online, an accredited and respected global university. Choose from 300+ online degrees and certificates today., To learn more about ASU Online or a specific program, fill out the form below and check your email for information on next steps., ASU Online is dedicated to providing innovative, high-quality online education to Sun Devils from across the country and around the world., Apply Now, Please select one of the options below:, Start Undergraduate Application, Start Graduate Application, This link will take you to an external web site.]
+}For tag &lt;a&gt; count mismatch 45---356
+tag list:
+envA : [Skip to main content, Report an accessibility problem, Menu, Sign In, ASU Home, News/Events, Academics, Research, Athletics, Alumni, Giving, President, About ASU, My ASU, Colleges and Schools, Arts and Sciences, Business, Design and the Arts, Education, Engineering, Future of Innovation in Society, Graduate, Health Solutions, Honors, Journalism, Law, Nursing and Health Innovation, Public Service and Community Solutions, Sustainability, University College, Thunderbird School of Global Management, Map and Locations, Map, Tempe, West, Polytechnic, Downtown Phoenix, Online and Extended, Lake Havasu, Corporate Engagement and Strategic Partnerships, Research Park, Washington D.C., China, Directory, ASU Online]
+envB : [Skip to main content, Report an accessibility problem, Menu, Sign In, ASU Home, News/Events, Academics, Research, Athletics, Alumni, Giving, President, About ASU, My ASU, Colleges and Schools, Arts and Sciences, Business, Design and the Arts, Education, Engineering, Future of Innovation in Society, Graduate, Health Solutions, Honors, Journalism, Law, Nursing and Health Innovation, Public Service and Community Solutions, Sustainability, University College, Thunderbird School of Global Management, Map and Locations, Map, Tempe, West, Polytechnic, Downtown Phoenix, Online and Extended, Lake Havasu, Corporate Engagement and Strategic Partnerships, Research Park, Washington D.C., China, Directory, ASU Online, Home, Online degrees, All online degrees, Undergraduate online degrees, Graduate online degrees, Online certificate programs, Non-degree programs, Cost, Admission, Future Sun Devil, What Sun Devils say, Course experience, Support, Community, Graduation and beyond, Newsroom, About, Contact us, FAQ, State Authorizations, About ASU, Anthropology (BA), Applied Leadership (BAS), Art (Digital Photography) (BFA), Art - Museum Studies (BA), Art History (BA), Astronomical and Planetary Sciences (BS), Biochemistry (BA), Biochemistry (BS), Biochemistry - Medicinal Chemistry (BS), Biological Sciences (BS), Biological Sciences - Biomedical Sciences (BS), Biological Sciences – Biology and Society (BS), Biological Sciences – Conservation Biology and Ecology (BS), Business - Business Administration (BA), Business - Communication (BA), Business - Corporate Accounting (BA), Business - Food Industry Management (BA), Business - Global Leadership (BA), Business - Global Logistics Management (BA), Business - Retail Management (BA), Business - Sports Business (BA), Business - Sustainability (BA), Business - Tourism (BA), Business Data Analytics (BS), Business – Financial Planning (BA), Business – Information Security (BA), Business – Law (BA), Communication (BS), Community Advocacy and Social Policy (BA), Community Health (BS), Computer Information Systems (BS), Criminology and Criminal Justice (BS), Digital Audiences (BS), Early Childhood Studies (BAS), Economics (BS) - Business, Economics (BS) - Liberal Arts, Educational Studies (BAE), Educational Studies - Early Childhood Education (BAE), Electrical Engineering (BSE), Electrical Engineering - Electric Power and Energy Systems (BSE), Engineering Management (BSE), English (BA), Family &amp; Human Development (BS), Film and Media Studies (BA), Food and Nutrition Entrepreneurship (BAS), Food and Nutrition Entrepreneurship BS, Geographic Information Science (BS), Geography (BA), Geography (BS), Global Health (BA), Global Management (BGM), Global Studies (BA), Graphic Design (BSD), Graphic Information Technology (BAS), Graphic Information Technology (BS), Health Care Compliance and Regulations (BS), Health Care Coordination (BS), Health Education and Health Promotion (BS), Health Entrepreneurship and Innovation (BAS), Health Entrepreneurship and Innovation (BS), Health Sciences (BAS), Health Sciences (BS), Healthy Lifestyles Coaching (Health Sciences) (BS), History (BA), Information Technology (BS), Integrative Health (BS), Interdisciplinary Arts and Performance (BA), Interdisciplinary Studies (BA), Interdisciplinary Studies - Organizational Studies (BA), International Public Health (BIPH), International Trade (BS), Internet &amp; Web Development (Applied Science BAS), Justice Studies (BS), Liberal Studies (BA), Management (BS), Marketing (BS), Mass Communication and Media Studies (BA), Nursing - RN to BSN, RN to BSN – Concurrent Enrollment (BSN), Operations Management (Applied Science BAS), Organizational Leadership (BA), Organizational Leadership - Project Management (BA), Philosophy (BA), Philosophy (Morality, Politics and Law) (BA), Physics (BA), Political Science (BA), Political Science (BS), Project Management (BAS), Psychology (BA), Psychology (BS), Psychology - Forensic Psychology (BA), Psychology - Forensic Psychology (BS), Public Service and Public Policy (BS), Public Service and Public Policy - Emergency Management Homeland Security (BS), Religious Studies - Religion, Culture and Public Life (BA), Sociology (BS), Software Engineering (BS), Spanish (BA), Speech and Hearing Science (BS), Supply Chain Management (BS), Sustainability (BA), Sustainability (BS), Sustainable Food Systems (BS), Technical Communication (BS), Technical Communication - User Experience (BS), Technological Entrepreneurship and Management (BS), Technological Leadership (BS), Tourism and Recreation Management (BS), Urban Planning (BSP), Women and Gender Studies (BA), Aging (MS), Behavioral Health (Clinical) (DBH), Behavioral Health (Management) (DBH), Biomedical Diagnostics (MS), Biomimicry (MS), Biosecurity and Threat Management (MA), Business Analytics (MS), Business Journalism (MS), Clinical Research Management (MS), Clinical Research Management - Regulatory Science (MS), Communication (MA), Community Resilience (MA), Computer Science (MCS), Computer Science - Big Data Systems (MCS), Construction Management and Technology (MS), Criminal Justice (MA), Curriculum and Instruction: Early Childhood Education (MEd), Curriculum and Instruction: Gifted Education (MEd), Cybersecurity (MCS), Cybersecurity Policy and Management (MA), Digital Audience Strategy (MS), Education (Educating Multilingual Learners) (MA), Education (MA), Education - Literacy Education (MA), Educational Leadership (Principalship) (MEd), Electrical Engineering (MSE), Emergency Management (MA), Emergency Management and Homeland Security (EMHS), Engineering Science in Software Engineering (MSE), Engineering: Engineering Management (MEng), Engineering: Quality, Reliability and Statistical Engineering (MEng), Engineering: Systems Engineering (MEng), English (MA), Executive Fire Administration (MA), Executive Master of Public Administration (EMPA), Family &amp; Human Development (MS), Film and Media Studies (MAS), Forensic Psychology (MS), Forensic Science (PSM), Global Education (MEd), Global Security (MA), Global Security - Cybersecurity (MA), Global Technology &amp; Development (Applied International Development) (MS), Global Technology and Development (MS), Graphic Information Technology (MS), Health Informatics (MAS), Healthcare Innovation (MHI), History (MA), Homeland Security (MA), Indigenous Education (MA), Industrial Engineering (MS), Information Technology (MS), International Health Management (MIHM), Leadership and Innovation (EdD), Leadership and Management (MALM) - Thunderbird, Learning Design and Technologies (MEd), Legal Studies (MLS), Conflict Resolution (MLS), Construction Law (MLS), Contract Management (MLS), Corporate and Health Care Compliance (MLS), Criminal Law (MLS), HR and Employment Law (MLS), Intellectual Property Law (MLS), Law and Sustainability (MLS), Sports Law and Business (MLS), Liberal Studies (MLSt), Materials Science and Engineering (MS), MBA - Master of Business Administration, MBA/MS - Industrial Engineering, MBA/MSE - Electrical Engineering, Medical Nutrition (MS), Nonprofit Leadership and Management (MNLM), Nursing (MS), Nursing - Nursing Education (MS), Nutritional Science (Dietetics) (MS), Organizational Leadership (MS), Political Psychology (MA), Program Evaluation and Data Analytics (MS), Psychology (MS), Public Interest Technology (MS), Public Safety Leadership and Administration (MPSLA), Public Safety Leadership and Administration – Emergency Medical Services – Mobile Integrated Healthcare (MPSLA), Public Safety Leadership and Administration – Executive Police Administration (MPSLA), Regulatory Science (MS), Regulatory Science – Food Safety (MS), Science of Health Care Delivery (MS), Social Justice and Human Rights (MA), Social Work (MSW), Sociology (MA), Special Education (Applied Behavior Analysis) (MA), Special Education - Autism Spectrum Disorders (MA), Supply Chain Management (MS), Sustainability Leadership (EMSL), Sustainability Leadership (MSL), Sustainable Engineering (MSE), Sustainable Food Systems (MS), Sustainable Tourism (MST), Teaching English to Speakers of Other Languages (MTESOL), Technical Communication (MS), World War II Studies (MA), Addiction and Substance-Use Related Disorders (Graduate Certificate), Advanced Analytics in Higher Education (Graduate Certificate), An Overview of Autism Spectrum Disorders (Graduate Certificate), Applied Behavior Analysis (Graduate Certificate), Applied Business Data Analytics (Undergraduate Certificate), Applied Prevention Science (Graduate Certificate), Biomimicry (Graduate Certificate), Clinical Research Management (Graduate Certificate), Corrections Management (Graduate Certificate), Criminal Sentencing and Sentencing Advocacy (Graduate Certificate), Digital Audience Strategy (Graduate Certificate), English as a Second Language (Graduate Certificate), Food Policy and Sustainability Leadership (Graduate Certificate), Food Safety and Protection (Graduate Certificate), Geographic Information Science (Undergraduate Certificate), Gifted Education (Graduate Certificate), Global Development and Innovation (Graduate Certificate), Health Care Innovation (Graduate Certificate), Homeland Security (Graduate Certificate), Homeland Security (Undergraduate Certificate), Integrated Behavioral Health - Clinical (Graduate Certificate), Integrated Behavioral Health - Management (Graduate Certificate), Law Enforcement Administration (Graduate Certificate), Lean Six Sigma Black Belt (Graduate Certificate), Mathematical Concepts of Engineering (Undergraduate Certificate), Nonprofit Leadership and Management (Graduate Certificate), Nuclear Power Generation (Graduate Certificate), Nurse Education in Academic and Practice Settings (Graduate Certificate), Program Evaluation (Graduate Certificate), Science of Health Care Delivery (Graduate Certificate), Social Entrepreneurship and Community Development (Graduate Certificate), Sustainability (Graduate Certificate), Sustainable Tourism (Graduate Certificate), Technical Communication (Graduate Certificate), Apply Now, Help Desk 855.278.5080, Enrollment 866.277.6589, asuonline@asu.edu, Undergraduate online degrees, Graduate online degrees, Online certificate programs, Non-degree programs, What it costs, Financial aid, Scholarship opportunities, Freshman, Transfer, Starbucks, Home school, International, Graduate, Military, Non-degree, What Sun Devils say, Course experience, Support, Community, Graduation and beyond, Succeed online, Contact us, State Authorizations, About ASU, ASU Online News, Current students, Leading educators, Online learning tips, Sun Devil life, Start Undergraduate Application, Start Graduate Application, Continue, ASU is No.1 in the U.S. for innovation, My ASU, Copyright and Trademark, Accessibility, Privacy, Terms of Use, Jobs, Emergency, Contact ASU]
+}For tag &lt;ul&gt; count mismatch 5---14
+tag list:
+envA : [Sign In, ASU Home News/Events Academics Research Athletics Alumni Giving President About ASU My ASU Colleges and Schools Arts and Sciences Business Design and the Arts Education Engineering Future of Innovation in Society Graduate Health Solutions Honors Journalism Law Nursing and Health Innovation Public Service and Community Solutions Sustainability University College Thunderbird School of Global Management Map and Locations Map Tempe West Polytechnic Downtown Phoenix Online and Extended Lake Havasu Corporate Engagement and Strategic Partnerships Research Park Washington D.C. China Directory, News/Events Academics Research Athletics Alumni Giving President About ASU, Arts and Sciences Business Design and the Arts Education Engineering Future of Innovation in Society Graduate Health Solutions Honors Journalism Law Nursing and Health Innovation Public Service and Community Solutions Sustainability University College Thunderbird School of Global Management, Map Tempe West Polytechnic Downtown Phoenix Online and Extended Lake Havasu Corporate Engagement and Strategic Partnerships Research Park Washington D.C. China]
+envB : [Sign In, ASU Home News/Events Academics Research Athletics Alumni Giving President About ASU My ASU Colleges and Schools Arts and Sciences Business Design and the Arts Education Engineering Future of Innovation in Society Graduate Health Solutions Honors Journalism Law Nursing and Health Innovation Public Service and Community Solutions Sustainability University College Thunderbird School of Global Management Map and Locations Map Tempe West Polytechnic Downtown Phoenix Online and Extended Lake Havasu Corporate Engagement and Strategic Partnerships Research Park Washington D.C. China Directory, News/Events Academics Research Athletics Alumni Giving President About ASU, Arts and Sciences Business Design and the Arts Education Engineering Future of Innovation in Society Graduate Health Solutions Honors Journalism Law Nursing and Health Innovation Public Service and Community Solutions Sustainability University College Thunderbird School of Global Management, Map Tempe West Polytechnic Downtown Phoenix Online and Extended Lake Havasu Corporate Engagement and Strategic Partnerships Research Park Washington D.C. China, Home Online degrees All online degrees Undergraduate online degrees Graduate online degrees Online certificate programs Non-degree programs Cost Admission Future Sun Devil What Sun Devils say Course experience Support Community Graduation and beyond Newsroom About Contact us FAQ State Authorizations About ASU Apply Now Request Info, Apply Now Help Desk 855.278.5080 Enrollment 866.277.6589 asuonline@asu.edu, Undergraduate online degrees Graduate online degrees Online certificate programs Non-degree programs, What it costs Financial aid Scholarship opportunities, Freshman Transfer Starbucks Home school International Graduate Military Non-degree, What Sun Devils say Course experience Support Community Graduation and beyond Succeed online, Contact us State Authorizations About ASU, ASU Online News Current students Leading educators Online learning tips Sun Devil life, My ASU Copyright and Trademark Accessibility Privacy Terms of Use Jobs Emergency Contact ASU]
+}For tag &lt;li&gt; count mismatch 41---91
+tag list:
+envA : [Sign In, ASU Home News/Events Academics Research Athletics Alumni Giving President About ASU, News/Events, Academics, Research, Athletics, Alumni, Giving, President, About ASU, My ASU, Colleges and Schools Arts and Sciences Business Design and the Arts Education Engineering Future of Innovation in Society Graduate Health Solutions Honors Journalism Law Nursing and Health Innovation Public Service and Community Solutions Sustainability University College Thunderbird School of Global Management, Arts and Sciences, Business, Design and the Arts, Education, Engineering, Future of Innovation in Society, Graduate, Health Solutions, Honors, Journalism, Law, Nursing and Health Innovation, Public Service and Community Solutions, Sustainability, University College, Thunderbird School of Global Management, Map and Locations Map Tempe West Polytechnic Downtown Phoenix Online and Extended Lake Havasu Corporate Engagement and Strategic Partnerships Research Park Washington D.C. China, Map, Tempe, West, Polytechnic, Downtown Phoenix, Online and Extended, Lake Havasu, Corporate Engagement and Strategic Partnerships, Research Park, Washington D.C., China, Directory]
+envB : [Sign In, ASU Home News/Events Academics Research Athletics Alumni Giving President About ASU, News/Events, Academics, Research, Athletics, Alumni, Giving, President, About ASU, My ASU, Colleges and Schools Arts and Sciences Business Design and the Arts Education Engineering Future of Innovation in Society Graduate Health Solutions Honors Journalism Law Nursing and Health Innovation Public Service and Community Solutions Sustainability University College Thunderbird School of Global Management, Arts and Sciences, Business, Design and the Arts, Education, Engineering, Future of Innovation in Society, Graduate, Health Solutions, Honors, Journalism, Law, Nursing and Health Innovation, Public Service and Community Solutions, Sustainability, University College, Thunderbird School of Global Management, Map and Locations Map Tempe West Polytechnic Downtown Phoenix Online and Extended Lake Havasu Corporate Engagement and Strategic Partnerships Research Park Washington D.C. China, Map, Tempe, West, Polytechnic, Downtown Phoenix, Online and Extended, Lake Havasu, Corporate Engagement and Strategic Partnerships, Research Park, Washington D.C., China, Directory, Home, Online degrees All online degrees Undergraduate online degrees Graduate online degrees Online certificate programs Non-degree programs, Cost, Admission, Future Sun Devil What Sun Devils say Course experience Support Community Graduation and beyond, Newsroom, About Contact us FAQ State Authorizations About ASU, Apply Now, Request Info, Apply Now, Help Desk 855.278.5080, Enrollment 866.277.6589, asuonline@asu.edu, Undergraduate online degrees, Graduate online degrees, Online certificate programs, Non-degree programs, What it costs, Financial aid, Scholarship opportunities, Freshman, Transfer, Starbucks, Home school, International, Graduate, Military, Non-degree, What Sun Devils say, Course experience, Support, Community, Graduation and beyond, Succeed online, Contact us, State Authorizations, About ASU, ASU Online News, Current students, Leading educators, Online learning tips, Sun Devil life, My ASU, Copyright and Trademark, Accessibility, Privacy, Terms of Use, Jobs, Emergency, Contact ASU]
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/
+EnvironmentB   :https://test.asuonline.asu.edu/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/military-scholarship/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/military-scholarship/
+EnvironmentB   :https://test.asuonline.asu.edu/military-scholarship/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/
+EnvironmentB   :https://test.asuonline.asu.edu/study/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/what-it-costs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+EnvironmentA   :https://asuonline.asu.edu/what-it-costs/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/
+MisMatch :
+false  || Select a degree type Undergraduate Graduate Certificates No results found. List is empty.&lt;---&gt;Select a degree type Undergraduate Certificates Graduate No results found. List is empty.
+false  || Graduate&lt;---&gt;Certificates
+false  || Certificates&lt;---&gt;Graduate
+</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/non-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/non-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/non-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/what-it-costs/financial-aid/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/what-it-costs/financial-aid/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/financial-aid/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/what-it-costs/scholarship-opportunities/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/what-it-costs/scholarship-opportunities/
+EnvironmentB   :https://test.asuonline.asu.edu/what-it-costs/scholarship-opportunities/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/freshman/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/freshman/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/freshman/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/graduate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/graduate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/home-school/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/home-school/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/home-school/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/international/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/international/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/international/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/military/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/military/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/military/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/admission/transfer/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/admission/transfer/
+EnvironmentB   :https://test.asuonline.asu.edu/admission/transfer/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/architecture-construction-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/architecture-construction-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/architecture-construction-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/business-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/business-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/business-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/art-design-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/art-design-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/art-design-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/communications-media-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/communications-media-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/communications-media-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/education-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/education-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/education-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/engineering-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/engineering-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/engineering-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/geographical-sciences-urban-planning/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/geographical-sciences-urban-planning/
+EnvironmentB   :https://test.asuonline.asu.edu/study/geographical-sciences-urban-planning/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/health-and-wellness/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/health-and-wellness/
+EnvironmentB   :https://test.asuonline.asu.edu/study/health-and-wellness/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/history-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/history-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/history-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/innovation-entrepreneur-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/innovation-entrepreneur-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/innovation-entrepreneur-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/humanities-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/humanities-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/humanities-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/it-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/it-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/it-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/language-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/language-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/language-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/law-degrees-public-service/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/law-degrees-public-service/
+EnvironmentB   :https://test.asuonline.asu.edu/study/law-degrees-public-service/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/liberal-arts-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/liberal-arts-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/liberal-arts-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/management-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/management-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/management-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/science-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/science-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/science-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/social-and-behavioral-sciences/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/social-and-behavioral-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/study/social-and-behavioral-sciences/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/stem-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/stem-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/stem-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/sustainability-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/sustainability-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/sustainability-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/study/tech-computer-science-degrees/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/study/tech-computer-science-degrees/
+EnvironmentB   :https://test.asuonline.asu.edu/study/tech-computer-science-degrees/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/addiction-and-substance-use-related-disorders-graduate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/digital-audience-strategy-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/applied-prevention-science-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/food-safety-grad-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/food-safety-grad-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/food-safety-grad-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/geographic-information-science-undergraduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/global-development-and-innovation-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-advanced-analytics-higher-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-applied-behavior-analysis/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-autism-spectrum-disorders/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-biomimicry/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-biomimicry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-biomimicry/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-clinical-research-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-clinical-research-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-clinical-research-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-corrections-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-corrections-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-corrections-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-criminal-sentencing-and-sentencing-advocacy/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-english-second-language/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-english-second-language/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-english-second-language/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-gifted-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-gifted-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-gifted-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-health-care-innovation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-health-care-innovation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-health-care-innovation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-law-enforcement-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-nuclear-power-generation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-science-health-care-delivery/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-sustainable-tourism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-sustainability-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-sustainability-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-sustainability-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/graduate-certificate-social-entrepreneurship-community-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-clinical-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/homeland-security-grad-cert/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/homeland-security-grad-cert/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/homeland-security-grad-cert/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/integrated-behavioral-health-management-grad-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/lean-six-sigma-black-belt-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/mathematical-concepts-engineering-undergraduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/nonprofit-leadership-and-management-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/program-evaluation-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/program-evaluation-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/program-evaluation-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/nurse-education-academic-and-practice-settings-graduate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/sustainable-food/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/sustainable-food/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/sustainable-food/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-applied-business-data-analytics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/technical-communication-graduate-certificate/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/technical-communication-graduate-certificate/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/technical-communication-graduate-certificate/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-homeland-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/certificates/undergraduate-certificate-homeland-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/applied-leadership-bas/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/applied-leadership-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-leadership-bas/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/applied-science-nutrition/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/applied-science-nutrition/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/applied-science-nutrition/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/art-museum-studies-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/art-museum-studies-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-museum-studies-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/art-digital-photography-bfa/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/art-digital-photography-bfa/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/art-digital-photography-bfa/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/astronomy-bachelors/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/astronomy-bachelors/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/astronomy-bachelors/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-health-sciences/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-internet-and-web-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-applied-science-operations-management-technology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-anthropology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-anthropology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-anthropology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-art-history/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-art-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-art-history/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-business/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-concentration-communication/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-corporate-accounting/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-global-logistics-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-retail-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-sustainability/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-tourism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-tourism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-business-tourism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-community-advocacy-and-social-policy/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-education-educational-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-english/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-english/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-english/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-film-and-media-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-food-industry-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-geography/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-geography/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-geography/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-health/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-health/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-global-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-history/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-history/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-mass-communication-and-media-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-organizational-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-philosophy/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-philosophy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-philosophy/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-political-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-political-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-political-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology-forensic-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-spanish/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-spanish/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-spanish/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-sustainability/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-sustainability/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-arts-women-and-gender-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies-organizational-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-interdisciplinary-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-international-public-health/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-international-public-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-international-public-health/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-liberal-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-liberal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-liberal-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-biochemistry/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-biochemistry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-biochemistry/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-business-data-analytics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-community-health/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-community-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-community-health/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-engineering-electrical-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-criminology-and-criminal-justice/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-family-and-human-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-communication/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-communication/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-geography/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-geography/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-geography/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-graphic-information-technology-concentration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-care-coordination/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-education-and-health-promotion/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-health-sciences-healthy-lifestyles-coaching/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-integrative-health/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-integrative-health/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-integrative-health/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-information-technology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-information-technology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-information-technology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-justice-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-justice-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-justice-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-marketing/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-marketing/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-marketing/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-nursing-rn-bsn/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-political-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-political-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-political-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology-forensic-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy-emergency/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-public-service-and-public-policy/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sociology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sociology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sociology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-software-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-software-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-software-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sustainability/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sustainability/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-sustainability/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technical-communication/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technical-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technical-communication/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-urban-planning/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-urban-planning/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-urban-planning/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/bachelor-science-technological-entrepreneurship-and-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/biochemistry-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/biochemistry-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biochemistry-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-biomedical-sciences-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biological-sciences-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/biology-and-society/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/biology-and-society/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/biology-and-society/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/business-law-major/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/business-law-major/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/business-law-major/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/computer-information-systems-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/computer-information-systems-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/computer-information-systems-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/conservation-biology-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/conservation-biology-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/conservation-biology-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/digital-audiences-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/digital-audiences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/digital-audiences-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-college-liberal-arts-and-sciences/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/early-childhood-applied-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/early-childhood-applied-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/early-childhood-applied-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-wpc/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-wpc/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/economics-bs-wpc/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/educational-studies-early-childhood-education-bae/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/engineering-engineering-management-bse/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/engineering-engineering-management-bse/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/engineering-engineering-management-bse/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/electrical-engineering-electric-power-and-energy-systems-bse/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/financial-planning-business/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/financial-planning-business/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/financial-planning-business/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/food-and-nutrition-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/food-and-nutrition-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/food-and-nutrition-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/geographic-information-science-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/geographic-information-science-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/geographic-information-science-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/graphic-design-major/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/graphic-design-major/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-design-major/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/global-management-bgm/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/global-management-bgm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/global-management-bgm/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-care-compliance-and-regulations-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bas/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bas/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-innovation-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/health-sciences-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/health-sciences-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/health-sciences-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/graphic-information-technology-bas/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/graphic-information-technology-bas/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/graphic-information-technology-bas/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/information-security-business-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/information-security-business-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/information-security-business-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/inquiry-based-learning-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/inquiry-based-learning-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/inquiry-based-learning-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/interdisciplinary-arts-and-performance-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/international-trade-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/international-trade-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/international-trade-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/medicinal-chemistry/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/medicinal-chemistry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/medicinal-chemistry/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/philosophy-morality-politics-and-law-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/organizational-leadership-project-management-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/physics-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/physics-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/physics-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/project-management-transfer-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/project-management-transfer-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/project-management-transfer-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/religious-studies-religion-culture-and-public-life-ba/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/rn-bsn-concurrent-enrollment-bsn/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/speech-and-hearing-science-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/speech-and-hearing-science-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/speech-and-hearing-science-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/sports-business-degree/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/sports-business-degree/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sports-business-degree/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/supply-chain-management-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/supply-chain-management-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/supply-chain-management-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/sustainable-food-systems/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/sustainable-food-systems/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/sustainable-food-systems/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/technical-communication-user-experience-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/technical-communication-user-experience-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/technical-communication-user-experience-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/undergraduate/tourism-and-recreation-management-bs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/communication-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/communication-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/communication-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/aging-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/aging-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/aging-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/computer-science-mcs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/computer-science-mcs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/computer-science-mcs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/conflict-resolution-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/conflict-resolution-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/conflict-resolution-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/construction-law-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/construction-law-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/construction-law-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/contract-management-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/contract-management-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/contract-management-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/corporate-and-health-care-compliance-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/criminal-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/criminal-law-emphasis-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/criminal-law-emphasis-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-mcs/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-mcs/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-mcs/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/cybersecurity-policy-and-management-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/digital-audience-strategy-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/digital-audience-strategy-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/digital-audience-strategy-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-clinical/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-clinical/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-clinical/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/education-educating-multilingual-learners-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/education-educating-multilingual-learners-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/education-educating-multilingual-learners-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/doctor-behavioral-health-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/edd-leadership-and-innovation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/edd-leadership-and-innovation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/edd-leadership-and-innovation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/executive-master-public-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/executive-master-public-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/executive-master-public-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/executive-sustainability-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/executive-sustainability-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/executive-sustainability-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/forensic-science-psm/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/forensic-science-psm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/forensic-science-psm/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/global-education-med/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/global-education-med/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/global-education-med/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/global-security-cybersecurity-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/global-security-cybersecurity-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/global-security-cybersecurity-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/global-technology-development-applied-international-development-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/graphic-information-technology-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/graphic-information-technology-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/graphic-information-technology-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/hr-employment-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/hr-employment-law-emphasis-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/hr-employment-law-emphasis-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/indigenous-education-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/indigenous-education-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/indigenous-education-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/information-technology-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/information-technology-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/information-technology-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/intellectual-property-law-emphasis-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/international-health-management-mihm/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/international-health-management-mihm/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/international-health-management-mihm/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/literacy-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/literacy-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/literacy-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/law-sustainability-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/law-sustainability-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/law-sustainability-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-american-media-and-popular-culture/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-health-informatics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-health-informatics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-health-informatics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-advanced-study-sustainable-tourism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-biosecurity-and-threat-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-applied-leadership-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-applied-leadership-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-applied-leadership-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-community-resilience/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-community-resilience/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-community-resilience/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-criminal-justice/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-criminal-justice/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-criminal-justice/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management-and-homeland-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-emergency-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-english/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-english/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-english/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-global-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-global-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-global-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-history/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-history/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-history/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-homeland-security/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-homeland-security/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-homeland-security/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-sociology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-sociology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-sociology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-arts-special-education-applied-behavior-analysis/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-big-data/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-big-data/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-big-data/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-engineering-electrical/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration-master-science-industrial-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-business-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-business-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-business-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-early-childhood-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-curriculum-and-instruction-teaching-and-learning-gifted-elementary/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-education-educational-leadership-principalship/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-education-educational-leadership-principalship/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-educational-leadership-principalship/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-education-learning-design-technologies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-education-learning-design-technologies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-education-learning-design-technologies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-engineering-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-engineering-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-engineering-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-quality-reliability-and-statistical/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-engineering-area-study-systems-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-healthcare-innovation/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-healthcare-innovation/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-healthcare-innovation/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-liberal-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-liberal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-liberal-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-legal-studies/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-legal-studies/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-legal-studies/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-public-safety-leadership-and-administration/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-public-safety-leadership-and-administration/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-public-safety-leadership-and-administration/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-biomedical-diagnostics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-biomedical-diagnostics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-biomedical-diagnostics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-biomimicry/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-biomimicry/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-biomimicry/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-business-analytics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-business-analytics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-business-analytics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-business-journalism/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-business-journalism/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-business-journalism/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management-regulatory-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-clinical-research-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-construction-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-construction-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-construction-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-electrical-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-electrical-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-electrical-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering-engineering-science-concentration-software/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-family-and-human-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-family-and-human-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-family-and-human-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-forensic-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-forensic-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-forensic-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-global-technology-development/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-global-technology-development/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-global-technology-development/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-industrial-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-industrial-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-industrial-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-materials-science-and-engineering/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-materials-science-and-engineering/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-materials-science-and-engineering/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-nutritional-science-dietetics/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-nutritional-science-dietetics/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-nutritional-science-dietetics/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-psychology/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-psychology/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-psychology/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-technical-communication/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-technical-communication/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-technical-communication/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-science-science-health-care-delivery/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-science-science-health-care-delivery/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-science-science-health-care-delivery/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-social-work-social-work/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-social-work-social-work/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-social-work-social-work/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-sustainability-leadership-sustainability-leadership/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/master-teaching-english-speakers-other-languages/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-certification-master-nonprofit-leadership-and-management/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-food-science/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-food-science/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-food-science/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-in-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-in-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-in-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-nursing-education/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-nursing-education/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-nursing-education/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-nursing/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-nursing/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-nursing/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-emergency/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-police/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-public-safety-leadership-and-administration-executive-fire/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/masters-sustainable-food-systems/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/masters-sustainable-food-systems/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/masters-sustainable-food-systems/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/medical-nutrition-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/medical-nutrition-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/medical-nutrition-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/organizational-leadership-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/organizational-leadership-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/organizational-leadership-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/political-psychology-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/political-psychology-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/political-psychology-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/program-evaluation-and-data-analytics-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/public-interest-technology-masters/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/public-interest-technology-masters/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/public-interest-technology-masters/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/regulatory-science-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/regulatory-science-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/regulatory-science-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/social-justice-and-human-rights-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/social-justice-and-human-rights-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/social-justice-and-human-rights-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/special-education-autism-spectrum-disorders-ma/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/sports-law-and-business-emphases-mls/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/sports-law-and-business-emphases-mls/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/sports-law-and-business-emphases-mls/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/supply-chain-management-ms/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/supply-chain-management-ms/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/supply-chain-management-ms/
+No MisMatch
+}</t>
+  </si>
+  <si>
+    <t>https://asuonline.asu.edu/online-degree-programs/graduate/world-war-ii-studies-ma/</t>
+  </si>
+  <si>
+    <t>{
+EnvironmentA   :https://asuonline.asu.edu/online-degree-programs/graduate/world-war-ii-studies-ma/
+EnvironmentB   :https://test.asuonline.asu.edu/online-degree-programs/graduate/world-war-ii-studies-ma/
+No MisMatch
+}</t>
   </si>
 </sst>
 </file>
@@ -5493,17 +8325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>968</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -5512,20 +8337,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -5534,26 +8352,26 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>972</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>974</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -5562,12 +8380,12 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>976</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -5576,12 +8394,12 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>978</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -5590,7 +8408,3843 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>984</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>986</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>990</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>992</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>994</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>996</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>998</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>242</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B81" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B91" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B93" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B94" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B95" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B97" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B101" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B105" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B106" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B108" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B109" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B110" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B111" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B112" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B116" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B117" t="s">
+        <v>359</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B118" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B121" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B122" t="s">
+        <v>374</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B123" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B125" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B126" t="s">
+        <v>383</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B127" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B128" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B129" t="s">
+        <v>398</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B130" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B131" t="s">
+        <v>401</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B132" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B134" t="s">
+        <v>410</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B135" t="s">
+        <v>413</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B136" t="s">
+        <v>419</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B137" t="s">
+        <v>416</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B138" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B139" t="s">
+        <v>422</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B140" t="s">
+        <v>431</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B141" t="s">
+        <v>425</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B142" t="s">
+        <v>434</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B143" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B144" t="s">
+        <v>446</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B145" t="s">
+        <v>950</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B146" t="s">
+        <v>440</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B147" t="s">
+        <v>443</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B148" t="s">
+        <v>953</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B149" t="s">
+        <v>449</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B150" t="s">
+        <v>455</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B151" t="s">
+        <v>452</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B152" t="s">
+        <v>458</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B153" t="s">
+        <v>461</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B154" t="s">
+        <v>467</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B155" t="s">
+        <v>464</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B156" t="s">
+        <v>956</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B157" t="s">
+        <v>473</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B158" t="s">
+        <v>470</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B159" t="s">
+        <v>959</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B160" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B161" t="s">
+        <v>482</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B162" t="s">
+        <v>485</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B163" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B164" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B165" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B166" t="s">
+        <v>494</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B167" t="s">
+        <v>497</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B168" t="s">
+        <v>500</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B169" t="s">
+        <v>503</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B170" t="s">
+        <v>506</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B171" t="s">
+        <v>512</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B172" t="s">
+        <v>509</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B173" t="s">
+        <v>515</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B174" t="s">
+        <v>518</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B175" t="s">
+        <v>521</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B176" t="s">
+        <v>524</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B177" t="s">
+        <v>530</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B178" t="s">
+        <v>527</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B179" t="s">
+        <v>533</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B180" t="s">
+        <v>536</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B181" t="s">
+        <v>539</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B182" t="s">
+        <v>542</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B183" t="s">
+        <v>548</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B184" t="s">
+        <v>545</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B185" t="s">
+        <v>551</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B186" t="s">
+        <v>554</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B187" t="s">
+        <v>557</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B188" t="s">
+        <v>560</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B189" t="s">
+        <v>563</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B190" t="s">
+        <v>566</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B191" t="s">
+        <v>578</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B192" t="s">
+        <v>569</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B193" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B194" t="s">
+        <v>575</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B195" t="s">
+        <v>587</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B196" t="s">
+        <v>581</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B197" t="s">
+        <v>584</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B198" t="s">
+        <v>590</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B199" t="s">
+        <v>593</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B200" t="s">
+        <v>596</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B201" t="s">
+        <v>599</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B202" t="s">
+        <v>602</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B203" t="s">
+        <v>605</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B204" t="s">
+        <v>617</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B205" t="s">
+        <v>608</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B206" t="s">
+        <v>614</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B207" t="s">
+        <v>611</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B208" t="s">
+        <v>620</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B209" t="s">
+        <v>626</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B210" t="s">
+        <v>623</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B211" t="s">
+        <v>629</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B212" t="s">
+        <v>632</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B213" t="s">
+        <v>635</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B214" t="s">
+        <v>638</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B215" t="s">
+        <v>644</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B216" t="s">
+        <v>641</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B217" t="s">
+        <v>647</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B218" t="s">
+        <v>650</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B219" t="s">
+        <v>653</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B220" t="s">
+        <v>656</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B221" t="s">
+        <v>659</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B222" t="s">
+        <v>662</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B223" t="s">
+        <v>665</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B224" t="s">
+        <v>668</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B225" t="s">
+        <v>671</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B226" t="s">
+        <v>674</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B227" t="s">
+        <v>677</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B229" t="s">
+        <v>680</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B230" t="s">
+        <v>683</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B231" t="s">
+        <v>689</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B232" t="s">
+        <v>695</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B233" t="s">
+        <v>692</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B234" t="s">
+        <v>698</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B235" t="s">
+        <v>701</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B236" t="s">
+        <v>704</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B237" t="s">
+        <v>710</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B238" t="s">
+        <v>707</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B239" t="s">
+        <v>716</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B240" t="s">
+        <v>713</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B241" t="s">
+        <v>719</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B242" t="s">
+        <v>722</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B243" t="s">
+        <v>725</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B244" t="s">
+        <v>728</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B245" t="s">
+        <v>731</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B246" t="s">
+        <v>734</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B247" t="s">
+        <v>737</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B248" t="s">
+        <v>740</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B249" t="s">
+        <v>743</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B250" t="s">
+        <v>746</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B251" t="s">
+        <v>749</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B252" t="s">
+        <v>755</v>
+      </c>
+      <c r="C252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B253" t="s">
+        <v>752</v>
+      </c>
+      <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B254" t="s">
+        <v>758</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B255" t="s">
+        <v>761</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B256" t="s">
+        <v>764</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B257" t="s">
+        <v>767</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B258" t="s">
+        <v>770</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B259" t="s">
+        <v>776</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B260" t="s">
+        <v>773</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B261" t="s">
+        <v>779</v>
+      </c>
+      <c r="C261" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B262" t="s">
+        <v>782</v>
+      </c>
+      <c r="C262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B263" t="s">
+        <v>785</v>
+      </c>
+      <c r="C263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B264" t="s">
+        <v>788</v>
+      </c>
+      <c r="C264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B265" t="s">
+        <v>791</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B266" t="s">
+        <v>794</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B267" t="s">
+        <v>797</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B268" t="s">
+        <v>800</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B269" t="s">
+        <v>803</v>
+      </c>
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B270" t="s">
+        <v>809</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B271" t="s">
+        <v>806</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B272" t="s">
+        <v>812</v>
+      </c>
+      <c r="C272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B273" t="s">
+        <v>815</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B274" t="s">
+        <v>821</v>
+      </c>
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B275" t="s">
+        <v>818</v>
+      </c>
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B276" t="s">
+        <v>824</v>
+      </c>
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B277" t="s">
+        <v>827</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B278" t="s">
+        <v>833</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B279" t="s">
+        <v>830</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B280" t="s">
+        <v>836</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B281" t="s">
+        <v>839</v>
+      </c>
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B282" t="s">
+        <v>842</v>
+      </c>
+      <c r="C282" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B283" t="s">
+        <v>845</v>
+      </c>
+      <c r="C283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
